--- a/Data/CancerSEEK/Test Effectiveness.xlsx
+++ b/Data/CancerSEEK/Test Effectiveness.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Theirs" sheetId="1" r:id="rId1"/>
+    <sheet name="Ours" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Colorectum</t>
   </si>
@@ -126,8 +127,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,15 +448,15 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H2">
+      <c r="H2" s="1">
         <f>MEDIAN(E7:E19)</f>
         <v>0.70796460176991149</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <f>SUM(C7:C19)/SUM(B7:B19)</f>
         <v>0.62288557213930351</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
         <v>0.78756191524490915</v>
       </c>
@@ -466,7 +468,7 @@
         <f>SUM(B7:B19)-SUM(C7:C19)</f>
         <v>379</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <f>K4/(K4+L2)</f>
         <v>0.62288557213930351</v>
       </c>
@@ -491,7 +493,7 @@
         <f>B21-C21</f>
         <v>805</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <f>L4/(L4+K2)</f>
         <v>0.99137931034482762</v>
       </c>
@@ -657,30 +659,16 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E7:E19">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{16FBCEA6-0BB0-4286-A9C8-3C30EFB4C1AD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F19">
+  <conditionalFormatting sqref="E7:F21">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
+        <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CF4409CF-EF8D-46AA-B9E6-9042D7692C48}</x14:id>
+          <x14:id>{D40A35EE-5A8C-489E-A105-1AF2250955C9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -690,30 +678,303 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{16FBCEA6-0BB0-4286-A9C8-3C30EFB4C1AD}">
+          <x14:cfRule type="dataBar" id="{D40A35EE-5A8C-489E-A105-1AF2250955C9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
+              <x14:borderColor rgb="FF638EC6"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E19</xm:sqref>
+          <xm:sqref>E7:F21</xm:sqref>
         </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <f>MEDIAN(E7:E19)</f>
+        <v>0.875</v>
+      </c>
+      <c r="I2" s="1">
+        <f>SUM(C7:C19)/SUM(B7:B19)</f>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
+        <v>0.90555555555555556</v>
+      </c>
+      <c r="K2">
+        <f>C21</f>
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <f>SUM(B7:B19)-SUM(C7:C19)</f>
+        <v>10</v>
+      </c>
+      <c r="N2" s="1">
+        <f>K4/(K4+L2)</f>
+        <v>0.90476190476190477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>SUM(C7:C19)</f>
+        <v>95</v>
+      </c>
+      <c r="L4">
+        <f>B21-C21</f>
+        <v>68</v>
+      </c>
+      <c r="N4" s="1">
+        <f>L4/(L4+K2)</f>
+        <v>0.90666666666666662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <f>C7/B7</f>
+        <v>0.875</v>
+      </c>
+      <c r="F7">
+        <f>(B7-C7)/B7</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <f>C9/B9</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F9">
+        <f>(B9-C9)/B9</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <f>C11/B11</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F11">
+        <f>(B11-C11)/B11</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <f>C13/B13</f>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f>(B13-C13)/B13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <f>C15/B15</f>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f>(B15-C15)/B15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <f>C17/B17</f>
+        <v>0.8</v>
+      </c>
+      <c r="F17">
+        <f>(B17-C17)/B17</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <f>C19/B19</f>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f>(B19-C19)/B19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <f>(B21-C21)/B21</f>
+        <v>0.90666666666666662</v>
+      </c>
+      <c r="F21">
+        <f>C21/B21</f>
+        <v>9.3333333333333338E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E7:F21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{71E1FBD6-3BFC-49C1-8AFA-45BDD6ED85AA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CF4409CF-EF8D-46AA-B9E6-9042D7692C48}">
+          <x14:cfRule type="dataBar" id="{71E1FBD6-3BFC-49C1-8AFA-45BDD6ED85AA}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
+              <x14:borderColor rgb="FF638EC6"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F7:F19</xm:sqref>
+          <xm:sqref>E7:F21</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Data/CancerSEEK/Test Effectiveness.xlsx
+++ b/Data/CancerSEEK/Test Effectiveness.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Theirs" sheetId="1" r:id="rId1"/>
     <sheet name="Ours" sheetId="2" r:id="rId2"/>
+    <sheet name="Less Positives" sheetId="3" r:id="rId3"/>
+    <sheet name="Side by Side" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="19">
   <si>
     <t>Colorectum</t>
   </si>
@@ -416,7 +418,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F21"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,40 +661,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E7:F21">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D40A35EE-5A8C-489E-A105-1AF2250955C9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D40A35EE-5A8C-489E-A105-1AF2250955C9}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E7:F21</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -700,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,40 +913,727 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E7:F21">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{71E1FBD6-3BFC-49C1-8AFA-45BDD6ED85AA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{71E1FBD6-3BFC-49C1-8AFA-45BDD6ED85AA}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E7:F21</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <f>MEDIAN(E7:E19)</f>
+        <v>0.92035398230088494</v>
+      </c>
+      <c r="I2" s="1">
+        <f>SUM(C7:C19)/SUM(B7:B19)</f>
+        <v>0.85870646766169156</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
+        <v>0.91909741331865713</v>
+      </c>
+      <c r="K2">
+        <f>C21</f>
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <f>SUM(B7:B19)-SUM(C7:C19)</f>
+        <v>142</v>
+      </c>
+      <c r="N2" s="1">
+        <f>K4/(K4+L2)</f>
+        <v>0.85870646766169156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>SUM(C7:C19)</f>
+        <v>863</v>
+      </c>
+      <c r="L4">
+        <f>B21-C21</f>
+        <v>807</v>
+      </c>
+      <c r="N4" s="1">
+        <f>L4/(L4+K2)</f>
+        <v>0.99384236453201968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>209</v>
+      </c>
+      <c r="C7">
+        <v>149</v>
+      </c>
+      <c r="E7">
+        <f>C7/B7</f>
+        <v>0.71291866028708128</v>
+      </c>
+      <c r="F7">
+        <f>(B7-C7)/B7</f>
+        <v>0.28708133971291866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>388</v>
+      </c>
+      <c r="C9">
+        <v>337</v>
+      </c>
+      <c r="E9">
+        <f>C9/B9</f>
+        <v>0.86855670103092786</v>
+      </c>
+      <c r="F9">
+        <f>(B9-C9)/B9</f>
+        <v>0.13144329896907217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <f>C11/B11</f>
+        <v>0.97727272727272729</v>
+      </c>
+      <c r="F11">
+        <f>(B11-C11)/B11</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>104</v>
+      </c>
+      <c r="C13">
+        <v>97</v>
+      </c>
+      <c r="E13">
+        <f>C13/B13</f>
+        <v>0.93269230769230771</v>
+      </c>
+      <c r="F13">
+        <f>(B13-C13)/B13</f>
+        <v>6.7307692307692304E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <f>C15/B15</f>
+        <v>0.98148148148148151</v>
+      </c>
+      <c r="F15">
+        <f>(B15-C15)/B15</f>
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>93</v>
+      </c>
+      <c r="C17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <f>C17/B17</f>
+        <v>0.86021505376344087</v>
+      </c>
+      <c r="F17">
+        <f>(B17-C17)/B17</f>
+        <v>0.13978494623655913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>113</v>
+      </c>
+      <c r="C19">
+        <v>104</v>
+      </c>
+      <c r="E19">
+        <f>C19/B19</f>
+        <v>0.92035398230088494</v>
+      </c>
+      <c r="F19">
+        <f>(B19-C19)/B19</f>
+        <v>7.9646017699115043E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>812</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <f>(B21-C21)/B21</f>
+        <v>0.99384236453201968</v>
+      </c>
+      <c r="F21">
+        <f>C21/B21</f>
+        <v>6.1576354679802959E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <f>MEDIAN(E7:E19)</f>
+        <v>0.70796460176991149</v>
+      </c>
+      <c r="S2" s="1">
+        <f>MEDIAN(P7:P19)</f>
+        <v>0.92035398230088494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <f>SUM(C7:C19)/SUM(B7:B19)</f>
+        <v>0.62288557213930351</v>
+      </c>
+      <c r="S4" s="1">
+        <f>SUM(N7:N19)/SUM(M7:M19)</f>
+        <v>0.85870646766169156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
+        <v>0.78756191524490915</v>
+      </c>
+      <c r="S6" s="1">
+        <f>SUM(N7:N19,M21-N21)/SUM(M7:M21)</f>
+        <v>0.91909741331865713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>209</v>
+      </c>
+      <c r="C7">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <f>C7/B7</f>
+        <v>0.3349282296650718</v>
+      </c>
+      <c r="F7">
+        <f>(B7-C7)/B7</f>
+        <v>0.66507177033492826</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>209</v>
+      </c>
+      <c r="N7">
+        <v>149</v>
+      </c>
+      <c r="P7">
+        <f>N7/M7</f>
+        <v>0.71291866028708128</v>
+      </c>
+      <c r="Q7">
+        <f>(M7-N7)/M7</f>
+        <v>0.28708133971291866</v>
+      </c>
+      <c r="S7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f>C21</f>
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <f>N21</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>388</v>
+      </c>
+      <c r="C9">
+        <v>252</v>
+      </c>
+      <c r="E9">
+        <f>C9/B9</f>
+        <v>0.64948453608247425</v>
+      </c>
+      <c r="F9">
+        <f>(B9-C9)/B9</f>
+        <v>0.35051546391752575</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>388</v>
+      </c>
+      <c r="N9">
+        <v>337</v>
+      </c>
+      <c r="P9">
+        <f>N9/M9</f>
+        <v>0.86855670103092786</v>
+      </c>
+      <c r="Q9">
+        <f>(M9-N9)/M9</f>
+        <v>0.13144329896907217</v>
+      </c>
+      <c r="S9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f>SUM(C7:C19)</f>
+        <v>626</v>
+      </c>
+      <c r="S10">
+        <f>SUM(N7:N19)</f>
+        <v>863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <f>C11/B11</f>
+        <v>0.97727272727272729</v>
+      </c>
+      <c r="F11">
+        <f>(B11-C11)/B11</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>44</v>
+      </c>
+      <c r="N11">
+        <v>43</v>
+      </c>
+      <c r="P11">
+        <f>N11/M11</f>
+        <v>0.97727272727272729</v>
+      </c>
+      <c r="Q11">
+        <f>(M11-N11)/M11</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f>SUM(B7:B19)-SUM(C7:C19)</f>
+        <v>379</v>
+      </c>
+      <c r="S12">
+        <f>SUM(M7:M19)-SUM(N7:N19)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>104</v>
+      </c>
+      <c r="C13">
+        <v>61</v>
+      </c>
+      <c r="E13">
+        <f>C13/B13</f>
+        <v>0.58653846153846156</v>
+      </c>
+      <c r="F13">
+        <f>(B13-C13)/B13</f>
+        <v>0.41346153846153844</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>104</v>
+      </c>
+      <c r="N13">
+        <v>97</v>
+      </c>
+      <c r="P13">
+        <f>N13/M13</f>
+        <v>0.93269230769230771</v>
+      </c>
+      <c r="Q13">
+        <f>(M13-N13)/M13</f>
+        <v>6.7307692307692304E-2</v>
+      </c>
+      <c r="S13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f>B21-C21</f>
+        <v>805</v>
+      </c>
+      <c r="S14">
+        <f>M21-N21</f>
+        <v>807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <f>C15/B15</f>
+        <v>0.98148148148148151</v>
+      </c>
+      <c r="F15">
+        <f>(B15-C15)/B15</f>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>54</v>
+      </c>
+      <c r="N15">
+        <v>53</v>
+      </c>
+      <c r="P15">
+        <f>N15/M15</f>
+        <v>0.98148148148148151</v>
+      </c>
+      <c r="Q15">
+        <f>(M15-N15)/M15</f>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="S15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <f>H10/(H10+H12)</f>
+        <v>0.62288557213930351</v>
+      </c>
+      <c r="S16" s="1">
+        <f>S10/(S10+S12)</f>
+        <v>0.85870646766169156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>93</v>
+      </c>
+      <c r="C17">
+        <v>67</v>
+      </c>
+      <c r="E17">
+        <f>C17/B17</f>
+        <v>0.72043010752688175</v>
+      </c>
+      <c r="F17">
+        <f>(B17-C17)/B17</f>
+        <v>0.27956989247311825</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>93</v>
+      </c>
+      <c r="N17">
+        <v>80</v>
+      </c>
+      <c r="P17">
+        <f>N17/M17</f>
+        <v>0.86021505376344087</v>
+      </c>
+      <c r="Q17">
+        <f>(M17-N17)/M17</f>
+        <v>0.13978494623655913</v>
+      </c>
+      <c r="S17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <f>H14/(H14+H8)</f>
+        <v>0.99137931034482762</v>
+      </c>
+      <c r="S18" s="1">
+        <f>S14/(S14+S8)</f>
+        <v>0.99384236453201968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>113</v>
+      </c>
+      <c r="C19">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <f>C19/B19</f>
+        <v>0.70796460176991149</v>
+      </c>
+      <c r="F19">
+        <f>(B19-C19)/B19</f>
+        <v>0.29203539823008851</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>113</v>
+      </c>
+      <c r="N19">
+        <v>104</v>
+      </c>
+      <c r="P19">
+        <f>N19/M19</f>
+        <v>0.92035398230088494</v>
+      </c>
+      <c r="Q19">
+        <f>(M19-N19)/M19</f>
+        <v>7.9646017699115043E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>812</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <f>(B21-C21)/B21</f>
+        <v>0.99137931034482762</v>
+      </c>
+      <c r="F21">
+        <f>C21/B21</f>
+        <v>8.6206896551724137E-3</v>
+      </c>
+      <c r="L21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>812</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <f>(M21-N21)/M21</f>
+        <v>0.99384236453201968</v>
+      </c>
+      <c r="Q21">
+        <f>N21/M21</f>
+        <v>6.1576354679802959E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/CancerSEEK/Test Effectiveness.xlsx
+++ b/Data/CancerSEEK/Test Effectiveness.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Theirs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="20">
   <si>
     <t>Colorectum</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Incorrect</t>
+  </si>
+  <si>
+    <t>Fair warning this was trained and tested on mainly the same data</t>
   </si>
 </sst>
 </file>
@@ -129,9 +132,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,9 +423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -669,9 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -922,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,6 +937,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
       <c r="H1" t="s">
         <v>8</v>
       </c>
@@ -955,6 +962,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="H2" s="1">
         <f>MEDIAN(E7:E19)</f>
         <v>0.92035398230088494</v>
@@ -981,6 +991,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="K3" t="s">
         <v>13</v>
       </c>
@@ -1166,7 +1179,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1174,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,6 +1204,11 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
       <c r="S1" t="s">
         <v>8</v>
       </c>
@@ -1196,6 +1218,9 @@
         <f>MEDIAN(E7:E19)</f>
         <v>0.70796460176991149</v>
       </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
       <c r="S2" s="1">
         <f>MEDIAN(P7:P19)</f>
         <v>0.92035398230088494</v>
@@ -1205,6 +1230,9 @@
       <c r="H3" t="s">
         <v>10</v>
       </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
       <c r="S3" t="s">
         <v>10</v>
       </c>
@@ -1634,6 +1662,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:N3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/CancerSEEK/Test Effectiveness.xlsx
+++ b/Data/CancerSEEK/Test Effectiveness.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Theirs" sheetId="1" r:id="rId1"/>
     <sheet name="Ours" sheetId="2" r:id="rId2"/>
     <sheet name="Less Positives" sheetId="3" r:id="rId3"/>
     <sheet name="Side by Side" sheetId="4" r:id="rId4"/>
+    <sheet name="Cross Validated" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="20">
   <si>
     <t>Colorectum</t>
   </si>
@@ -423,7 +424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -531,6 +534,9 @@
         <v>0.66507177033492826</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="1"/>
+    </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
@@ -673,7 +679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -924,7 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1192,7 +1200,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:N3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,4 +1675,257 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <f>MEDIAN(E7:E19)</f>
+        <v>0.92920353982300885</v>
+      </c>
+      <c r="I2" s="1">
+        <f>SUM(C7:C19)/SUM(B7:B19)</f>
+        <v>0.88059701492537312</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
+        <v>0.89763346175013758</v>
+      </c>
+      <c r="K2">
+        <f>C21</f>
+        <v>66</v>
+      </c>
+      <c r="L2">
+        <f>SUM(B7:B19)-SUM(C7:C19)</f>
+        <v>120</v>
+      </c>
+      <c r="N2" s="1">
+        <f>K4/(K4+L2)</f>
+        <v>0.88059701492537312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>SUM(C7:C19)</f>
+        <v>885</v>
+      </c>
+      <c r="L4">
+        <f>B21-C21</f>
+        <v>746</v>
+      </c>
+      <c r="N4" s="1">
+        <f>L4/(L4+K2)</f>
+        <v>0.91871921182266014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>209</v>
+      </c>
+      <c r="C7">
+        <v>166</v>
+      </c>
+      <c r="E7">
+        <f>C7/B7</f>
+        <v>0.79425837320574166</v>
+      </c>
+      <c r="F7">
+        <f>(B7-C7)/B7</f>
+        <v>0.20574162679425836</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>388</v>
+      </c>
+      <c r="C9">
+        <v>338</v>
+      </c>
+      <c r="E9">
+        <f>C9/B9</f>
+        <v>0.87113402061855671</v>
+      </c>
+      <c r="F9">
+        <f>(B9-C9)/B9</f>
+        <v>0.12886597938144329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <f>C11/B11</f>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>(B11-C11)/B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>104</v>
+      </c>
+      <c r="C13">
+        <v>98</v>
+      </c>
+      <c r="E13">
+        <f>C13/B13</f>
+        <v>0.94230769230769229</v>
+      </c>
+      <c r="F13">
+        <f>(B13-C13)/B13</f>
+        <v>5.7692307692307696E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
+      <c r="E15">
+        <f>C15/B15</f>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f>(B15-C15)/B15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>93</v>
+      </c>
+      <c r="C17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <f>C17/B17</f>
+        <v>0.86021505376344087</v>
+      </c>
+      <c r="F17">
+        <f>(B17-C17)/B17</f>
+        <v>0.13978494623655913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>113</v>
+      </c>
+      <c r="C19">
+        <v>105</v>
+      </c>
+      <c r="E19">
+        <f>C19/B19</f>
+        <v>0.92920353982300885</v>
+      </c>
+      <c r="F19">
+        <f>(B19-C19)/B19</f>
+        <v>7.0796460176991149E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>812</v>
+      </c>
+      <c r="C21">
+        <v>66</v>
+      </c>
+      <c r="E21">
+        <f>(B21-C21)/B21</f>
+        <v>0.91871921182266014</v>
+      </c>
+      <c r="F21">
+        <f>C21/B21</f>
+        <v>8.1280788177339899E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/CancerSEEK/Test Effectiveness.xlsx
+++ b/Data/CancerSEEK/Test Effectiveness.xlsx
@@ -5,19 +5,23 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ortn-my.sharepoint.com/personal/andrewil000_ortn_edu/Documents/Documents/Thesis/Data/CancerSEEK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrewil000\OneDrive - Oak Ridge Schools\Documents\Thesis\Data\CancerSEEK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Theirs" sheetId="1" r:id="rId1"/>
     <sheet name="Ours" sheetId="2" r:id="rId2"/>
     <sheet name="Less Positives" sheetId="3" r:id="rId3"/>
-    <sheet name="Side by Side" sheetId="4" r:id="rId4"/>
-    <sheet name="Cross Validated" sheetId="5" r:id="rId5"/>
+    <sheet name="Cross Validated" sheetId="5" r:id="rId4"/>
+    <sheet name="With Omega Scores" sheetId="6" r:id="rId5"/>
+    <sheet name="Omega2" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="R11000000C8">Omega2!$H$11</definedName>
+  </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="20">
   <si>
     <t>Colorectum</t>
   </si>
@@ -424,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -933,7 +937,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,95 +1201,98 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="S1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H2" s="1">
         <f>MEDIAN(E7:E19)</f>
-        <v>0.70796460176991149</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="S2" s="1">
-        <f>MEDIAN(P7:P19)</f>
-        <v>0.92035398230088494</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="S3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H4" s="1">
+        <v>0.92920353982300885</v>
+      </c>
+      <c r="I2" s="1">
         <f>SUM(C7:C19)/SUM(B7:B19)</f>
-        <v>0.62288557213930351</v>
-      </c>
-      <c r="S4" s="1">
-        <f>SUM(N7:N19)/SUM(M7:M19)</f>
-        <v>0.85870646766169156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.88059701492537312</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
+        <v>0.89763346175013758</v>
+      </c>
+      <c r="K2">
+        <f>C21</f>
+        <v>66</v>
+      </c>
+      <c r="L2">
+        <f>SUM(B7:B19)-SUM(C7:C19)</f>
+        <v>120</v>
+      </c>
+      <c r="N2" s="1">
+        <f>K4/(K4+L2)</f>
+        <v>0.88059701492537312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>SUM(C7:C19)</f>
+        <v>885</v>
+      </c>
+      <c r="L4">
+        <f>B21-C21</f>
+        <v>746</v>
+      </c>
+      <c r="N4" s="1">
+        <f>L4/(L4+K2)</f>
+        <v>0.91871921182266014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H6" s="1">
-        <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
-        <v>0.78756191524490915</v>
-      </c>
-      <c r="S6" s="1">
-        <f>SUM(N7:N19,M21-N21)/SUM(M7:M21)</f>
-        <v>0.91909741331865713</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1293,51 +1300,19 @@
         <v>209</v>
       </c>
       <c r="C7">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="E7">
         <f>C7/B7</f>
-        <v>0.3349282296650718</v>
+        <v>0.79425837320574166</v>
       </c>
       <c r="F7">
         <f>(B7-C7)/B7</f>
-        <v>0.66507177033492826</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>209</v>
-      </c>
-      <c r="N7">
-        <v>149</v>
-      </c>
-      <c r="P7">
-        <f>N7/M7</f>
-        <v>0.71291866028708128</v>
-      </c>
-      <c r="Q7">
-        <f>(M7-N7)/M7</f>
-        <v>0.28708133971291866</v>
-      </c>
-      <c r="S7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H8">
-        <f>C21</f>
-        <v>7</v>
-      </c>
-      <c r="S8">
-        <f>N21</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.20574162679425836</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1345,51 +1320,18 @@
         <v>388</v>
       </c>
       <c r="C9">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="E9">
         <f>C9/B9</f>
-        <v>0.64948453608247425</v>
+        <v>0.87113402061855671</v>
       </c>
       <c r="F9">
         <f>(B9-C9)/B9</f>
-        <v>0.35051546391752575</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>388</v>
-      </c>
-      <c r="N9">
-        <v>337</v>
-      </c>
-      <c r="P9">
-        <f>N9/M9</f>
-        <v>0.86855670103092786</v>
-      </c>
-      <c r="Q9">
-        <f>(M9-N9)/M9</f>
-        <v>0.13144329896907217</v>
-      </c>
-      <c r="S9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H10">
-        <f>SUM(C7:C19)</f>
-        <v>626</v>
-      </c>
-      <c r="S10">
-        <f>SUM(N7:N19)</f>
-        <v>863</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.12886597938144329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1397,51 +1339,18 @@
         <v>44</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <f>C11/B11</f>
-        <v>0.97727272727272729</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <f>(B11-C11)/B11</f>
-        <v>2.2727272727272728E-2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11">
-        <v>44</v>
-      </c>
-      <c r="N11">
-        <v>43</v>
-      </c>
-      <c r="P11">
-        <f>N11/M11</f>
-        <v>0.97727272727272729</v>
-      </c>
-      <c r="Q11">
-        <f>(M11-N11)/M11</f>
-        <v>2.2727272727272728E-2</v>
-      </c>
-      <c r="S11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H12">
-        <f>SUM(B7:B19)-SUM(C7:C19)</f>
-        <v>379</v>
-      </c>
-      <c r="S12">
-        <f>SUM(M7:M19)-SUM(N7:N19)</f>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1449,51 +1358,18 @@
         <v>104</v>
       </c>
       <c r="C13">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E13">
         <f>C13/B13</f>
-        <v>0.58653846153846156</v>
+        <v>0.94230769230769229</v>
       </c>
       <c r="F13">
         <f>(B13-C13)/B13</f>
-        <v>0.41346153846153844</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>104</v>
-      </c>
-      <c r="N13">
-        <v>97</v>
-      </c>
-      <c r="P13">
-        <f>N13/M13</f>
-        <v>0.93269230769230771</v>
-      </c>
-      <c r="Q13">
-        <f>(M13-N13)/M13</f>
-        <v>6.7307692307692304E-2</v>
-      </c>
-      <c r="S13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H14">
-        <f>B21-C21</f>
-        <v>805</v>
-      </c>
-      <c r="S14">
-        <f>M21-N21</f>
-        <v>807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>5.7692307692307696E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1501,51 +1377,18 @@
         <v>54</v>
       </c>
       <c r="C15">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <f>C15/B15</f>
-        <v>0.98148148148148151</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <f>(B15-C15)/B15</f>
-        <v>1.8518518518518517E-2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15">
-        <v>54</v>
-      </c>
-      <c r="N15">
-        <v>53</v>
-      </c>
-      <c r="P15">
-        <f>N15/M15</f>
-        <v>0.98148148148148151</v>
-      </c>
-      <c r="Q15">
-        <f>(M15-N15)/M15</f>
-        <v>1.8518518518518517E-2</v>
-      </c>
-      <c r="S15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H16" s="1">
-        <f>H10/(H10+H12)</f>
-        <v>0.62288557213930351</v>
-      </c>
-      <c r="S16" s="1">
-        <f>S10/(S10+S12)</f>
-        <v>0.85870646766169156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1553,51 +1396,18 @@
         <v>93</v>
       </c>
       <c r="C17">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E17">
         <f>C17/B17</f>
-        <v>0.72043010752688175</v>
+        <v>0.86021505376344087</v>
       </c>
       <c r="F17">
         <f>(B17-C17)/B17</f>
-        <v>0.27956989247311825</v>
-      </c>
-      <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17">
-        <v>93</v>
-      </c>
-      <c r="N17">
-        <v>80</v>
-      </c>
-      <c r="P17">
-        <f>N17/M17</f>
-        <v>0.86021505376344087</v>
-      </c>
-      <c r="Q17">
-        <f>(M17-N17)/M17</f>
         <v>0.13978494623655913</v>
       </c>
-      <c r="S17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H18" s="1">
-        <f>H14/(H14+H8)</f>
-        <v>0.99137931034482762</v>
-      </c>
-      <c r="S18" s="1">
-        <f>S14/(S14+S8)</f>
-        <v>0.99384236453201968</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1605,35 +1415,18 @@
         <v>113</v>
       </c>
       <c r="C19">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E19">
         <f>C19/B19</f>
-        <v>0.70796460176991149</v>
+        <v>0.92920353982300885</v>
       </c>
       <c r="F19">
         <f>(B19-C19)/B19</f>
-        <v>0.29203539823008851</v>
-      </c>
-      <c r="L19" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19">
-        <v>113</v>
-      </c>
-      <c r="N19">
-        <v>104</v>
-      </c>
-      <c r="P19">
-        <f>N19/M19</f>
-        <v>0.92035398230088494</v>
-      </c>
-      <c r="Q19">
-        <f>(M19-N19)/M19</f>
-        <v>7.9646017699115043E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>7.0796460176991149E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1641,38 +1434,18 @@
         <v>812</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <f>(B21-C21)/B21</f>
-        <v>0.99137931034482762</v>
+        <v>0.91871921182266014</v>
       </c>
       <c r="F21">
         <f>C21/B21</f>
-        <v>8.6206896551724137E-3</v>
-      </c>
-      <c r="L21" t="s">
-        <v>6</v>
-      </c>
-      <c r="M21">
-        <v>812</v>
-      </c>
-      <c r="N21">
-        <v>5</v>
-      </c>
-      <c r="P21">
-        <f>(M21-N21)/M21</f>
-        <v>0.99384236453201968</v>
-      </c>
-      <c r="Q21">
-        <f>N21/M21</f>
-        <v>6.1576354679802959E-3</v>
+        <v>8.1280788177339899E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L1:N3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1681,8 +1454,259 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <f>MEDIAN(E7:E19)</f>
+        <v>0.8584070796460177</v>
+      </c>
+      <c r="I2" s="1">
+        <f>SUM(C7:C19)/SUM(B7:B19)</f>
+        <v>0.78308457711442792</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
+        <v>0.86681342872867362</v>
+      </c>
+      <c r="K2">
+        <f>C21</f>
+        <v>24</v>
+      </c>
+      <c r="L2">
+        <f>SUM(B7:B19)-SUM(C7:C19)</f>
+        <v>218</v>
+      </c>
+      <c r="N2" s="1">
+        <f>K4/(K4+L2)</f>
+        <v>0.78308457711442792</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>SUM(C7:C19)</f>
+        <v>787</v>
+      </c>
+      <c r="L4">
+        <f>B21-C21</f>
+        <v>788</v>
+      </c>
+      <c r="N4" s="1">
+        <f>L4/(L4+K2)</f>
+        <v>0.97044334975369462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>209</v>
+      </c>
+      <c r="C7">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <f>C7/B7</f>
+        <v>0.60765550239234445</v>
+      </c>
+      <c r="F7">
+        <f>(B7-C7)/B7</f>
+        <v>0.3923444976076555</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>388</v>
+      </c>
+      <c r="C9">
+        <v>310</v>
+      </c>
+      <c r="E9">
+        <f>C9/B9</f>
+        <v>0.7989690721649485</v>
+      </c>
+      <c r="F9">
+        <f>(B9-C9)/B9</f>
+        <v>0.20103092783505155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <f>C11/B11</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="F11">
+        <f>(B11-C11)/B11</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>104</v>
+      </c>
+      <c r="C13">
+        <v>91</v>
+      </c>
+      <c r="E13">
+        <f>C13/B13</f>
+        <v>0.875</v>
+      </c>
+      <c r="F13">
+        <f>(B13-C13)/B13</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <f>C15/B15</f>
+        <v>0.98148148148148151</v>
+      </c>
+      <c r="F15">
+        <f>(B15-C15)/B15</f>
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>93</v>
+      </c>
+      <c r="C17">
+        <v>67</v>
+      </c>
+      <c r="E17">
+        <f>C17/B17</f>
+        <v>0.72043010752688175</v>
+      </c>
+      <c r="F17">
+        <f>(B17-C17)/B17</f>
+        <v>0.27956989247311825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>113</v>
+      </c>
+      <c r="C19">
+        <v>97</v>
+      </c>
+      <c r="E19">
+        <f>C19/B19</f>
+        <v>0.8584070796460177</v>
+      </c>
+      <c r="F19">
+        <f>(B19-C19)/B19</f>
+        <v>0.1415929203539823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>812</v>
+      </c>
+      <c r="C21">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <f>(B21-C21)/B21</f>
+        <v>0.97044334975369462</v>
+      </c>
+      <c r="F21">
+        <f>C21/B21</f>
+        <v>2.9556650246305417E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,27 +1740,27 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H2" s="1">
         <f>MEDIAN(E7:E19)</f>
-        <v>0.92920353982300885</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="I2" s="1">
         <f>SUM(C7:C19)/SUM(B7:B19)</f>
-        <v>0.88059701492537312</v>
+        <v>0.86368159203980099</v>
       </c>
       <c r="J2" s="1">
         <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
-        <v>0.89763346175013758</v>
+        <v>0.89873417721518989</v>
       </c>
       <c r="K2">
         <f>C21</f>
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="L2">
         <f>SUM(B7:B19)-SUM(C7:C19)</f>
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="N2" s="1">
         <f>K4/(K4+L2)</f>
-        <v>0.88059701492537312</v>
+        <v>0.86368159203980099</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1753,15 +1777,15 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K4">
         <f>SUM(C7:C19)</f>
-        <v>885</v>
+        <v>868</v>
       </c>
       <c r="L4">
         <f>B21-C21</f>
-        <v>746</v>
+        <v>765</v>
       </c>
       <c r="N4" s="1">
         <f>L4/(L4+K2)</f>
-        <v>0.91871921182266014</v>
+        <v>0.94211822660098521</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1780,15 +1804,15 @@
         <v>209</v>
       </c>
       <c r="C7">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E7">
         <f>C7/B7</f>
-        <v>0.79425837320574166</v>
+        <v>0.73205741626794263</v>
       </c>
       <c r="F7">
         <f>(B7-C7)/B7</f>
-        <v>0.20574162679425836</v>
+        <v>0.26794258373205743</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -1838,15 +1862,15 @@
         <v>104</v>
       </c>
       <c r="C13">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E13">
         <f>C13/B13</f>
-        <v>0.94230769230769229</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="F13">
         <f>(B13-C13)/B13</f>
-        <v>5.7692307692307696E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1857,15 +1881,15 @@
         <v>54</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <f>C15/B15</f>
-        <v>1</v>
+        <v>0.98148148148148151</v>
       </c>
       <c r="F15">
         <f>(B15-C15)/B15</f>
-        <v>0</v>
+        <v>1.8518518518518517E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1876,15 +1900,15 @@
         <v>93</v>
       </c>
       <c r="C17">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17">
         <f>C17/B17</f>
-        <v>0.86021505376344087</v>
+        <v>0.84946236559139787</v>
       </c>
       <c r="F17">
         <f>(B17-C17)/B17</f>
-        <v>0.13978494623655913</v>
+        <v>0.15053763440860216</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1914,15 +1938,15 @@
         <v>812</v>
       </c>
       <c r="C21">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E21">
         <f>(B21-C21)/B21</f>
-        <v>0.91871921182266014</v>
+        <v>0.94211822660098521</v>
       </c>
       <c r="F21">
         <f>C21/B21</f>
-        <v>8.1280788177339899E-2</v>
+        <v>5.7881773399014777E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/CancerSEEK/Test Effectiveness.xlsx
+++ b/Data/CancerSEEK/Test Effectiveness.xlsx
@@ -9,17 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Theirs" sheetId="1" r:id="rId1"/>
     <sheet name="Ours" sheetId="2" r:id="rId2"/>
-    <sheet name="Less Positives" sheetId="3" r:id="rId3"/>
-    <sheet name="Cross Validated" sheetId="5" r:id="rId4"/>
-    <sheet name="With Omega Scores" sheetId="6" r:id="rId5"/>
+    <sheet name="Less+" sheetId="3" r:id="rId3"/>
+    <sheet name="10x" sheetId="5" r:id="rId4"/>
+    <sheet name="Omega" sheetId="6" r:id="rId5"/>
     <sheet name="Omega2" sheetId="7" r:id="rId6"/>
+    <sheet name="Omega3" sheetId="8" r:id="rId7"/>
+    <sheet name="Omega4" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="R11000000C8" localSheetId="6">Omega3!$H$11</definedName>
     <definedName name="R11000000C8">Omega2!$H$11</definedName>
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="20">
   <si>
     <t>Colorectum</t>
   </si>
@@ -428,9 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -683,9 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -937,7 +936,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,9 +1704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1952,4 +1949,506 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <f>MEDIAN(E7:E19)</f>
+        <v>0.93805309734513276</v>
+      </c>
+      <c r="I2" s="1">
+        <f>SUM(C7:C19)/SUM(B7:B19)</f>
+        <v>0.87661691542288556</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
+        <v>0.90148596587782059</v>
+      </c>
+      <c r="K2">
+        <f>C21</f>
+        <v>55</v>
+      </c>
+      <c r="L2">
+        <f>SUM(B7:B19)-SUM(C7:C19)</f>
+        <v>124</v>
+      </c>
+      <c r="N2" s="1">
+        <f>K4/(K4+L2)</f>
+        <v>0.87661691542288556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>SUM(C7:C19)</f>
+        <v>881</v>
+      </c>
+      <c r="L4">
+        <f>B21-C21</f>
+        <v>757</v>
+      </c>
+      <c r="N4" s="1">
+        <f>L4/(L4+K2)</f>
+        <v>0.93226600985221675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>209</v>
+      </c>
+      <c r="C7">
+        <v>161</v>
+      </c>
+      <c r="E7">
+        <f>C7/B7</f>
+        <v>0.77033492822966509</v>
+      </c>
+      <c r="F7">
+        <f>(B7-C7)/B7</f>
+        <v>0.22966507177033493</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>388</v>
+      </c>
+      <c r="C9">
+        <v>343</v>
+      </c>
+      <c r="E9">
+        <f>C9/B9</f>
+        <v>0.884020618556701</v>
+      </c>
+      <c r="F9">
+        <f>(B9-C9)/B9</f>
+        <v>0.11597938144329897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <f>C11/B11</f>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>(B11-C11)/B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>104</v>
+      </c>
+      <c r="C13">
+        <v>99</v>
+      </c>
+      <c r="E13">
+        <f>C13/B13</f>
+        <v>0.95192307692307687</v>
+      </c>
+      <c r="F13">
+        <f>(B13-C13)/B13</f>
+        <v>4.807692307692308E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>52</v>
+      </c>
+      <c r="E15">
+        <f>C15/B15</f>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="F15">
+        <f>(B15-C15)/B15</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>93</v>
+      </c>
+      <c r="C17">
+        <v>76</v>
+      </c>
+      <c r="E17">
+        <f>C17/B17</f>
+        <v>0.81720430107526887</v>
+      </c>
+      <c r="F17">
+        <f>(B17-C17)/B17</f>
+        <v>0.18279569892473119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>113</v>
+      </c>
+      <c r="C19">
+        <v>106</v>
+      </c>
+      <c r="E19">
+        <f>C19/B19</f>
+        <v>0.93805309734513276</v>
+      </c>
+      <c r="F19">
+        <f>(B19-C19)/B19</f>
+        <v>6.1946902654867256E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>812</v>
+      </c>
+      <c r="C21">
+        <v>55</v>
+      </c>
+      <c r="E21">
+        <f>(B21-C21)/B21</f>
+        <v>0.93226600985221675</v>
+      </c>
+      <c r="F21">
+        <f>C21/B21</f>
+        <v>6.7733990147783252E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <f>MEDIAN(E7:E19)</f>
+        <v>0.75</v>
+      </c>
+      <c r="I2" s="1">
+        <f>SUM(C7:C19)/SUM(B7:B19)</f>
+        <v>0.68955223880597016</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
+        <v>0.82333516785910843</v>
+      </c>
+      <c r="K2">
+        <f>C21</f>
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <f>SUM(B7:B19)-SUM(C7:C19)</f>
+        <v>312</v>
+      </c>
+      <c r="N2" s="1">
+        <f>K4/(K4+L2)</f>
+        <v>0.68955223880597016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>SUM(C7:C19)</f>
+        <v>693</v>
+      </c>
+      <c r="L4">
+        <f>B21-C21</f>
+        <v>803</v>
+      </c>
+      <c r="N4" s="1">
+        <f>L4/(L4+K2)</f>
+        <v>0.98891625615763545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>209</v>
+      </c>
+      <c r="C7">
+        <v>92</v>
+      </c>
+      <c r="E7">
+        <f>C7/B7</f>
+        <v>0.44019138755980863</v>
+      </c>
+      <c r="F7">
+        <f>(B7-C7)/B7</f>
+        <v>0.55980861244019142</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>388</v>
+      </c>
+      <c r="C9">
+        <v>275</v>
+      </c>
+      <c r="E9">
+        <f>C9/B9</f>
+        <v>0.70876288659793818</v>
+      </c>
+      <c r="F9">
+        <f>(B9-C9)/B9</f>
+        <v>0.29123711340206188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <f>C11/B11</f>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>(B11-C11)/B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>104</v>
+      </c>
+      <c r="C13">
+        <v>78</v>
+      </c>
+      <c r="E13">
+        <f>C13/B13</f>
+        <v>0.75</v>
+      </c>
+      <c r="F13">
+        <f>(B13-C13)/B13</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>51</v>
+      </c>
+      <c r="E15">
+        <f>C15/B15</f>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="F15">
+        <f>(B15-C15)/B15</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>93</v>
+      </c>
+      <c r="C17">
+        <v>58</v>
+      </c>
+      <c r="E17">
+        <f>C17/B17</f>
+        <v>0.62365591397849462</v>
+      </c>
+      <c r="F17">
+        <f>(B17-C17)/B17</f>
+        <v>0.37634408602150538</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>113</v>
+      </c>
+      <c r="C19">
+        <v>95</v>
+      </c>
+      <c r="E19">
+        <f>C19/B19</f>
+        <v>0.84070796460176989</v>
+      </c>
+      <c r="F19">
+        <f>(B19-C19)/B19</f>
+        <v>0.15929203539823009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>812</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <f>(B21-C21)/B21</f>
+        <v>0.98891625615763545</v>
+      </c>
+      <c r="F21">
+        <f>C21/B21</f>
+        <v>1.1083743842364532E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/CancerSEEK/Test Effectiveness.xlsx
+++ b/Data/CancerSEEK/Test Effectiveness.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Theirs" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,9 @@
     <sheet name="Less+" sheetId="3" r:id="rId3"/>
     <sheet name="10x" sheetId="5" r:id="rId4"/>
     <sheet name="Omega" sheetId="6" r:id="rId5"/>
-    <sheet name="Omega2" sheetId="7" r:id="rId6"/>
-    <sheet name="Omega3" sheetId="8" r:id="rId7"/>
-    <sheet name="Omega4" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="R11000000C8" localSheetId="6">Omega3!$H$11</definedName>
-    <definedName name="R11000000C8">Omega2!$H$11</definedName>
+    <definedName name="R11000000C8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -35,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="20">
   <si>
     <t>Colorectum</t>
   </si>
@@ -1451,98 +1447,185 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:BF21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="H2" s="1">
         <f>MEDIAN(E7:E19)</f>
+        <v>0.79807692307692313</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="S2" s="1">
+        <f>MEDIAN(P7:P19)</f>
+        <v>0.75</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="AD2" s="1">
+        <f>MEDIAN(AA7:AA19)</f>
+        <v>0.93805309734513276</v>
+      </c>
+      <c r="AO2" s="1">
+        <f>MEDIAN(AL7:AL19)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="AZ2" s="1">
+        <f>MEDIAN(AW7:AW19)</f>
         <v>0.8584070796460177</v>
       </c>
-      <c r="I2" s="1">
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
         <f>SUM(C7:C19)/SUM(B7:B19)</f>
+        <v>0.70845771144278602</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="S4" s="1">
+        <f>SUM(N7:N19)/SUM(M7:M19)</f>
+        <v>0.68955223880597016</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="AD4" s="1">
+        <f>SUM(Y7:Y19)/SUM(X7:X19)</f>
+        <v>0.87661691542288556</v>
+      </c>
+      <c r="AO4" s="1">
+        <f>SUM(AJ7:AJ19)/SUM(AI7:AI19)</f>
+        <v>0.86368159203980099</v>
+      </c>
+      <c r="AZ4" s="1">
+        <f>SUM(AU7:AU19)/SUM(AT7:AT19)</f>
         <v>0.78308457711442792</v>
       </c>
-      <c r="J2" s="1">
-        <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
-        <v>0.86681342872867362</v>
-      </c>
-      <c r="K2">
-        <f>C21</f>
-        <v>24</v>
-      </c>
-      <c r="L2">
-        <f>SUM(B7:B19)-SUM(C7:C19)</f>
-        <v>218</v>
-      </c>
-      <c r="N2" s="1">
-        <f>K4/(K4+L2)</f>
-        <v>0.78308457711442792</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K4">
-        <f>SUM(C7:C19)</f>
-        <v>787</v>
-      </c>
-      <c r="L4">
-        <f>B21-C21</f>
-        <v>788</v>
-      </c>
-      <c r="N4" s="1">
-        <f>L4/(L4+K2)</f>
-        <v>0.97044334975369462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
+        <v>0.83379196477710515</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="S6" s="1">
+        <f>SUM(N7:N19,M21-N21)/SUM(M7:M21)</f>
+        <v>0.82333516785910843</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="AD6" s="1">
+        <f>SUM(Y7:Y19,X21-Y21)/SUM(X7:X21)</f>
+        <v>0.90148596587782059</v>
+      </c>
+      <c r="AO6" s="1">
+        <f>SUM(AJ7:AJ19,AI21-AJ21)/SUM(AI7:AI21)</f>
+        <v>0.89873417721518989</v>
+      </c>
+      <c r="AZ6" s="1">
+        <f>SUM(AU7:AU19,AT21-AU21)/SUM(AT7:AT21)</f>
+        <v>0.86681342872867362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1550,19 +1633,124 @@
         <v>209</v>
       </c>
       <c r="C7">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <f>C7/B7</f>
-        <v>0.60765550239234445</v>
+        <v>0.46889952153110048</v>
       </c>
       <c r="F7">
         <f>(B7-C7)/B7</f>
+        <v>0.53110047846889952</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>209</v>
+      </c>
+      <c r="N7">
+        <v>92</v>
+      </c>
+      <c r="P7">
+        <f>N7/M7</f>
+        <v>0.44019138755980863</v>
+      </c>
+      <c r="Q7">
+        <f>(M7-N7)/M7</f>
+        <v>0.55980861244019142</v>
+      </c>
+      <c r="S7" t="s">
+        <v>11</v>
+      </c>
+      <c r="W7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>209</v>
+      </c>
+      <c r="Y7">
+        <v>161</v>
+      </c>
+      <c r="AA7">
+        <f>Y7/X7</f>
+        <v>0.77033492822966509</v>
+      </c>
+      <c r="AB7">
+        <f>(X7-Y7)/X7</f>
+        <v>0.22966507177033493</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI7">
+        <v>209</v>
+      </c>
+      <c r="AJ7">
+        <v>153</v>
+      </c>
+      <c r="AL7">
+        <f>AJ7/AI7</f>
+        <v>0.73205741626794263</v>
+      </c>
+      <c r="AM7">
+        <f>(AI7-AJ7)/AI7</f>
+        <v>0.26794258373205743</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT7">
+        <v>209</v>
+      </c>
+      <c r="AU7">
+        <v>127</v>
+      </c>
+      <c r="AW7">
+        <f>AU7/AT7</f>
+        <v>0.60765550239234445</v>
+      </c>
+      <c r="AX7">
+        <f>(AT7-AU7)/AT7</f>
         <v>0.3923444976076555</v>
       </c>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AZ7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF7" s="1"/>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f>C21</f>
+        <v>9</v>
+      </c>
+      <c r="S8">
+        <f>N21</f>
+        <v>9</v>
+      </c>
+      <c r="AD8">
+        <f>Y21</f>
+        <v>55</v>
+      </c>
+      <c r="AO8">
+        <f>AJ21</f>
+        <v>47</v>
+      </c>
+      <c r="AZ8">
+        <f>AU21</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1570,269 +1758,123 @@
         <v>388</v>
       </c>
       <c r="C9">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="E9">
         <f>C9/B9</f>
-        <v>0.7989690721649485</v>
+        <v>0.72680412371134018</v>
       </c>
       <c r="F9">
         <f>(B9-C9)/B9</f>
+        <v>0.27319587628865977</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>388</v>
+      </c>
+      <c r="N9">
+        <v>275</v>
+      </c>
+      <c r="P9">
+        <f>N9/M9</f>
+        <v>0.70876288659793818</v>
+      </c>
+      <c r="Q9">
+        <f>(M9-N9)/M9</f>
+        <v>0.29123711340206188</v>
+      </c>
+      <c r="S9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W9" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>388</v>
+      </c>
+      <c r="Y9">
+        <v>343</v>
+      </c>
+      <c r="AA9">
+        <f>Y9/X9</f>
+        <v>0.884020618556701</v>
+      </c>
+      <c r="AB9">
+        <f>(X9-Y9)/X9</f>
+        <v>0.11597938144329897</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>388</v>
+      </c>
+      <c r="AJ9">
+        <v>338</v>
+      </c>
+      <c r="AL9">
+        <f>AJ9/AI9</f>
+        <v>0.87113402061855671</v>
+      </c>
+      <c r="AM9">
+        <f>(AI9-AJ9)/AI9</f>
+        <v>0.12886597938144329</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>388</v>
+      </c>
+      <c r="AU9">
+        <v>310</v>
+      </c>
+      <c r="AW9">
+        <f>AU9/AT9</f>
+        <v>0.7989690721649485</v>
+      </c>
+      <c r="AX9">
+        <f>(AT9-AU9)/AT9</f>
         <v>0.20103092783505155</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>44</v>
-      </c>
-      <c r="C11">
-        <v>42</v>
-      </c>
-      <c r="E11">
-        <f>C11/B11</f>
-        <v>0.95454545454545459</v>
-      </c>
-      <c r="F11">
-        <f>(B11-C11)/B11</f>
-        <v>4.5454545454545456E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>104</v>
-      </c>
-      <c r="C13">
-        <v>91</v>
-      </c>
-      <c r="E13">
-        <f>C13/B13</f>
-        <v>0.875</v>
-      </c>
-      <c r="F13">
-        <f>(B13-C13)/B13</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>54</v>
-      </c>
-      <c r="C15">
-        <v>53</v>
-      </c>
-      <c r="E15">
-        <f>C15/B15</f>
-        <v>0.98148148148148151</v>
-      </c>
-      <c r="F15">
-        <f>(B15-C15)/B15</f>
-        <v>1.8518518518518517E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>93</v>
-      </c>
-      <c r="C17">
-        <v>67</v>
-      </c>
-      <c r="E17">
-        <f>C17/B17</f>
-        <v>0.72043010752688175</v>
-      </c>
-      <c r="F17">
-        <f>(B17-C17)/B17</f>
-        <v>0.27956989247311825</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>113</v>
-      </c>
-      <c r="C19">
-        <v>97</v>
-      </c>
-      <c r="E19">
-        <f>C19/B19</f>
-        <v>0.8584070796460177</v>
-      </c>
-      <c r="F19">
-        <f>(B19-C19)/B19</f>
-        <v>0.1415929203539823</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>812</v>
-      </c>
-      <c r="C21">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <f>(B21-C21)/B21</f>
-        <v>0.97044334975369462</v>
-      </c>
-      <c r="F21">
-        <f>C21/B21</f>
-        <v>2.9556650246305417E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H2" s="1">
-        <f>MEDIAN(E7:E19)</f>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="I2" s="1">
-        <f>SUM(C7:C19)/SUM(B7:B19)</f>
-        <v>0.86368159203980099</v>
-      </c>
-      <c r="J2" s="1">
-        <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
-        <v>0.89873417721518989</v>
-      </c>
-      <c r="K2">
-        <f>C21</f>
-        <v>47</v>
-      </c>
-      <c r="L2">
-        <f>SUM(B7:B19)-SUM(C7:C19)</f>
-        <v>137</v>
-      </c>
-      <c r="N2" s="1">
-        <f>K4/(K4+L2)</f>
-        <v>0.86368159203980099</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K3" t="s">
+      <c r="AZ9" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K4">
-        <f>SUM(C7:C19)</f>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" ref="H10" si="0">SUM(C7:C19)</f>
+        <v>712</v>
+      </c>
+      <c r="S10">
+        <f>SUM(N7:N19)</f>
+        <v>693</v>
+      </c>
+      <c r="AD10">
+        <f>SUM(Y7:Y19)</f>
+        <v>881</v>
+      </c>
+      <c r="AO10">
+        <f>SUM(AJ7:AJ19)</f>
         <v>868</v>
       </c>
-      <c r="L4">
-        <f>B21-C21</f>
-        <v>765</v>
-      </c>
-      <c r="N4" s="1">
-        <f>L4/(L4+K2)</f>
-        <v>0.94211822660098521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>209</v>
-      </c>
-      <c r="C7">
-        <v>153</v>
-      </c>
-      <c r="E7">
-        <f>C7/B7</f>
-        <v>0.73205741626794263</v>
-      </c>
-      <c r="F7">
-        <f>(B7-C7)/B7</f>
-        <v>0.26794258373205743</v>
-      </c>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>388</v>
-      </c>
-      <c r="C9">
-        <v>338</v>
-      </c>
-      <c r="E9">
-        <f>C9/B9</f>
-        <v>0.87113402061855671</v>
-      </c>
-      <c r="F9">
-        <f>(B9-C9)/B9</f>
-        <v>0.12886597938144329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AZ10">
+        <f>SUM(AU7:AU19)</f>
+        <v>787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1850,8 +1892,113 @@
         <f>(B11-C11)/B11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>44</v>
+      </c>
+      <c r="N11">
+        <v>44</v>
+      </c>
+      <c r="P11">
+        <f>N11/M11</f>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f>(M11-N11)/M11</f>
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" t="s">
+        <v>5</v>
+      </c>
+      <c r="X11">
+        <v>44</v>
+      </c>
+      <c r="Y11">
+        <v>44</v>
+      </c>
+      <c r="AA11">
+        <f>Y11/X11</f>
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <f>(X11-Y11)/X11</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI11">
+        <v>44</v>
+      </c>
+      <c r="AJ11">
+        <v>44</v>
+      </c>
+      <c r="AL11">
+        <f>AJ11/AI11</f>
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <f>(AI11-AJ11)/AI11</f>
+        <v>0</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT11">
+        <v>44</v>
+      </c>
+      <c r="AU11">
+        <v>42</v>
+      </c>
+      <c r="AW11">
+        <f>AU11/AT11</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="AX11">
+        <f>(AT11-AU11)/AT11</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f>SUM(B7:B19)-SUM(C7:C19)</f>
+        <v>293</v>
+      </c>
+      <c r="S12">
+        <f>SUM(M7:M19)-SUM(N7:N19)</f>
+        <v>312</v>
+      </c>
+      <c r="AD12">
+        <f>SUM(X7:X19)-SUM(Y7:Y19)</f>
+        <v>124</v>
+      </c>
+      <c r="AO12">
+        <f>SUM(AI7:AI19)-SUM(AJ7:AJ19)</f>
+        <v>137</v>
+      </c>
+      <c r="AZ12">
+        <f>SUM(AT7:AT19)-SUM(AU7:AU19)</f>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1859,269 +2006,123 @@
         <v>104</v>
       </c>
       <c r="C13">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E13">
         <f>C13/B13</f>
-        <v>0.92307692307692313</v>
+        <v>0.79807692307692313</v>
       </c>
       <c r="F13">
         <f>(B13-C13)/B13</f>
+        <v>0.20192307692307693</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>104</v>
+      </c>
+      <c r="N13">
+        <v>78</v>
+      </c>
+      <c r="P13">
+        <f>N13/M13</f>
+        <v>0.75</v>
+      </c>
+      <c r="Q13">
+        <f>(M13-N13)/M13</f>
+        <v>0.25</v>
+      </c>
+      <c r="S13" t="s">
+        <v>14</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>104</v>
+      </c>
+      <c r="Y13">
+        <v>99</v>
+      </c>
+      <c r="AA13">
+        <f>Y13/X13</f>
+        <v>0.95192307692307687</v>
+      </c>
+      <c r="AB13">
+        <f>(X13-Y13)/X13</f>
+        <v>4.807692307692308E-2</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>104</v>
+      </c>
+      <c r="AJ13">
+        <v>96</v>
+      </c>
+      <c r="AL13">
+        <f>AJ13/AI13</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="AM13">
+        <f>(AI13-AJ13)/AI13</f>
         <v>7.6923076923076927E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>54</v>
-      </c>
-      <c r="C15">
-        <v>53</v>
-      </c>
-      <c r="E15">
-        <f>C15/B15</f>
-        <v>0.98148148148148151</v>
-      </c>
-      <c r="F15">
-        <f>(B15-C15)/B15</f>
-        <v>1.8518518518518517E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>93</v>
-      </c>
-      <c r="C17">
-        <v>79</v>
-      </c>
-      <c r="E17">
-        <f>C17/B17</f>
-        <v>0.84946236559139787</v>
-      </c>
-      <c r="F17">
-        <f>(B17-C17)/B17</f>
-        <v>0.15053763440860216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>113</v>
-      </c>
-      <c r="C19">
-        <v>105</v>
-      </c>
-      <c r="E19">
-        <f>C19/B19</f>
-        <v>0.92920353982300885</v>
-      </c>
-      <c r="F19">
-        <f>(B19-C19)/B19</f>
-        <v>7.0796460176991149E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>812</v>
-      </c>
-      <c r="C21">
-        <v>47</v>
-      </c>
-      <c r="E21">
-        <f>(B21-C21)/B21</f>
-        <v>0.94211822660098521</v>
-      </c>
-      <c r="F21">
-        <f>C21/B21</f>
-        <v>5.7881773399014777E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H2" s="1">
-        <f>MEDIAN(E7:E19)</f>
-        <v>0.93805309734513276</v>
-      </c>
-      <c r="I2" s="1">
-        <f>SUM(C7:C19)/SUM(B7:B19)</f>
-        <v>0.87661691542288556</v>
-      </c>
-      <c r="J2" s="1">
-        <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
-        <v>0.90148596587782059</v>
-      </c>
-      <c r="K2">
-        <f>C21</f>
-        <v>55</v>
-      </c>
-      <c r="L2">
-        <f>SUM(B7:B19)-SUM(C7:C19)</f>
-        <v>124</v>
-      </c>
-      <c r="N2" s="1">
-        <f>K4/(K4+L2)</f>
-        <v>0.87661691542288556</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="AO13" t="s">
         <v>14</v>
       </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K4">
-        <f>SUM(C7:C19)</f>
-        <v>881</v>
-      </c>
-      <c r="L4">
+      <c r="AS13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT13">
+        <v>104</v>
+      </c>
+      <c r="AU13">
+        <v>91</v>
+      </c>
+      <c r="AW13">
+        <f>AU13/AT13</f>
+        <v>0.875</v>
+      </c>
+      <c r="AX13">
+        <f>(AT13-AU13)/AT13</f>
+        <v>0.125</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="H14">
         <f>B21-C21</f>
+        <v>803</v>
+      </c>
+      <c r="S14">
+        <f>M21-N21</f>
+        <v>803</v>
+      </c>
+      <c r="AD14">
+        <f>X21-Y21</f>
         <v>757</v>
       </c>
-      <c r="N4" s="1">
-        <f>L4/(L4+K2)</f>
-        <v>0.93226600985221675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>209</v>
-      </c>
-      <c r="C7">
-        <v>161</v>
-      </c>
-      <c r="E7">
-        <f>C7/B7</f>
-        <v>0.77033492822966509</v>
-      </c>
-      <c r="F7">
-        <f>(B7-C7)/B7</f>
-        <v>0.22966507177033493</v>
-      </c>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>388</v>
-      </c>
-      <c r="C9">
-        <v>343</v>
-      </c>
-      <c r="E9">
-        <f>C9/B9</f>
-        <v>0.884020618556701</v>
-      </c>
-      <c r="F9">
-        <f>(B9-C9)/B9</f>
-        <v>0.11597938144329897</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>44</v>
-      </c>
-      <c r="C11">
-        <v>44</v>
-      </c>
-      <c r="E11">
-        <f>C11/B11</f>
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <f>(B11-C11)/B11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>104</v>
-      </c>
-      <c r="C13">
-        <v>99</v>
-      </c>
-      <c r="E13">
-        <f>C13/B13</f>
-        <v>0.95192307692307687</v>
-      </c>
-      <c r="F13">
-        <f>(B13-C13)/B13</f>
-        <v>4.807692307692308E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AO14">
+        <f>AI21-AJ21</f>
+        <v>765</v>
+      </c>
+      <c r="AZ14">
+        <f>AT21-AU21</f>
+        <v>788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2139,8 +2140,125 @@
         <f>(B15-C15)/B15</f>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>54</v>
+      </c>
+      <c r="N15">
+        <v>51</v>
+      </c>
+      <c r="P15">
+        <f>N15/M15</f>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="Q15">
+        <f>(M15-N15)/M15</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="S15" t="s">
+        <v>15</v>
+      </c>
+      <c r="W15" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15">
+        <v>54</v>
+      </c>
+      <c r="Y15">
+        <v>52</v>
+      </c>
+      <c r="AA15">
+        <f>Y15/X15</f>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="AB15">
+        <f>(X15-Y15)/X15</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI15">
+        <v>54</v>
+      </c>
+      <c r="AJ15">
+        <v>53</v>
+      </c>
+      <c r="AL15">
+        <f>AJ15/AI15</f>
+        <v>0.98148148148148151</v>
+      </c>
+      <c r="AM15">
+        <f>(AI15-AJ15)/AI15</f>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT15">
+        <v>54</v>
+      </c>
+      <c r="AU15">
+        <v>53</v>
+      </c>
+      <c r="AW15">
+        <f>AU15/AT15</f>
+        <v>0.98148148148148151</v>
+      </c>
+      <c r="AX15">
+        <f>(AT15-AU15)/AT15</f>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <f t="shared" ref="H16" si="1">H10/(H10+H12)</f>
+        <v>0.70845771144278602</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1">
+        <f>S10/(S10+S12)</f>
+        <v>0.68955223880597016</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="AD16" s="1">
+        <f>AD10/(AD10+AD12)</f>
+        <v>0.87661691542288556</v>
+      </c>
+      <c r="AO16" s="1">
+        <f>AO10/(AO10+AO12)</f>
+        <v>0.86368159203980099</v>
+      </c>
+      <c r="AZ16" s="1">
+        <f>AZ10/(AZ10+AZ12)</f>
+        <v>0.78308457711442792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2148,18 +2266,127 @@
         <v>93</v>
       </c>
       <c r="C17">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <f>C17/B17</f>
-        <v>0.81720430107526887</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="F17">
         <f>(B17-C17)/B17</f>
+        <v>0.35483870967741937</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>93</v>
+      </c>
+      <c r="N17">
+        <v>58</v>
+      </c>
+      <c r="P17">
+        <f>N17/M17</f>
+        <v>0.62365591397849462</v>
+      </c>
+      <c r="Q17">
+        <f>(M17-N17)/M17</f>
+        <v>0.37634408602150538</v>
+      </c>
+      <c r="S17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W17" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <v>93</v>
+      </c>
+      <c r="Y17">
+        <v>76</v>
+      </c>
+      <c r="AA17">
+        <f>Y17/X17</f>
+        <v>0.81720430107526887</v>
+      </c>
+      <c r="AB17">
+        <f>(X17-Y17)/X17</f>
         <v>0.18279569892473119</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AD17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI17">
+        <v>93</v>
+      </c>
+      <c r="AJ17">
+        <v>79</v>
+      </c>
+      <c r="AL17">
+        <f>AJ17/AI17</f>
+        <v>0.84946236559139787</v>
+      </c>
+      <c r="AM17">
+        <f>(AI17-AJ17)/AI17</f>
+        <v>0.15053763440860216</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT17">
+        <v>93</v>
+      </c>
+      <c r="AU17">
+        <v>67</v>
+      </c>
+      <c r="AW17">
+        <f>AU17/AT17</f>
+        <v>0.72043010752688175</v>
+      </c>
+      <c r="AX17">
+        <f>(AT17-AU17)/AT17</f>
+        <v>0.27956989247311825</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <f>H14/(H14+H8)</f>
+        <v>0.98891625615763545</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="S18" s="1">
+        <f>S14/(S14+S8)</f>
+        <v>0.98891625615763545</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="AD18" s="1">
+        <f>AD14/(AD14+AD8)</f>
+        <v>0.93226600985221675</v>
+      </c>
+      <c r="AO18" s="1">
+        <f>AO14/(AO14+AO8)</f>
+        <v>0.94211822660098521</v>
+      </c>
+      <c r="AZ18" s="1">
+        <f>AZ14/(AZ14+AZ8)</f>
+        <v>0.97044334975369462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2167,269 +2394,86 @@
         <v>113</v>
       </c>
       <c r="C19">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E19">
         <f>C19/B19</f>
-        <v>0.93805309734513276</v>
+        <v>0.82300884955752207</v>
       </c>
       <c r="F19">
         <f>(B19-C19)/B19</f>
+        <v>0.17699115044247787</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>113</v>
+      </c>
+      <c r="N19">
+        <v>95</v>
+      </c>
+      <c r="P19">
+        <f>N19/M19</f>
+        <v>0.84070796460176989</v>
+      </c>
+      <c r="Q19">
+        <f>(M19-N19)/M19</f>
+        <v>0.15929203539823009</v>
+      </c>
+      <c r="W19" t="s">
+        <v>7</v>
+      </c>
+      <c r="X19">
+        <v>113</v>
+      </c>
+      <c r="Y19">
+        <v>106</v>
+      </c>
+      <c r="AA19">
+        <f>Y19/X19</f>
+        <v>0.93805309734513276</v>
+      </c>
+      <c r="AB19">
+        <f>(X19-Y19)/X19</f>
         <v>6.1946902654867256E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>812</v>
-      </c>
-      <c r="C21">
-        <v>55</v>
-      </c>
-      <c r="E21">
-        <f>(B21-C21)/B21</f>
-        <v>0.93226600985221675</v>
-      </c>
-      <c r="F21">
-        <f>C21/B21</f>
-        <v>6.7733990147783252E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H2" s="1">
-        <f>MEDIAN(E7:E19)</f>
-        <v>0.75</v>
-      </c>
-      <c r="I2" s="1">
-        <f>SUM(C7:C19)/SUM(B7:B19)</f>
-        <v>0.68955223880597016</v>
-      </c>
-      <c r="J2" s="1">
-        <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
-        <v>0.82333516785910843</v>
-      </c>
-      <c r="K2">
-        <f>C21</f>
-        <v>9</v>
-      </c>
-      <c r="L2">
-        <f>SUM(B7:B19)-SUM(C7:C19)</f>
-        <v>312</v>
-      </c>
-      <c r="N2" s="1">
-        <f>K4/(K4+L2)</f>
-        <v>0.68955223880597016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K4">
-        <f>SUM(C7:C19)</f>
-        <v>693</v>
-      </c>
-      <c r="L4">
-        <f>B21-C21</f>
-        <v>803</v>
-      </c>
-      <c r="N4" s="1">
-        <f>L4/(L4+K2)</f>
-        <v>0.98891625615763545</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>209</v>
-      </c>
-      <c r="C7">
-        <v>92</v>
-      </c>
-      <c r="E7">
-        <f>C7/B7</f>
-        <v>0.44019138755980863</v>
-      </c>
-      <c r="F7">
-        <f>(B7-C7)/B7</f>
-        <v>0.55980861244019142</v>
-      </c>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>388</v>
-      </c>
-      <c r="C9">
-        <v>275</v>
-      </c>
-      <c r="E9">
-        <f>C9/B9</f>
-        <v>0.70876288659793818</v>
-      </c>
-      <c r="F9">
-        <f>(B9-C9)/B9</f>
-        <v>0.29123711340206188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>44</v>
-      </c>
-      <c r="C11">
-        <v>44</v>
-      </c>
-      <c r="E11">
-        <f>C11/B11</f>
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <f>(B11-C11)/B11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>104</v>
-      </c>
-      <c r="C13">
-        <v>78</v>
-      </c>
-      <c r="E13">
-        <f>C13/B13</f>
-        <v>0.75</v>
-      </c>
-      <c r="F13">
-        <f>(B13-C13)/B13</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>54</v>
-      </c>
-      <c r="C15">
-        <v>51</v>
-      </c>
-      <c r="E15">
-        <f>C15/B15</f>
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="F15">
-        <f>(B15-C15)/B15</f>
-        <v>5.5555555555555552E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>93</v>
-      </c>
-      <c r="C17">
-        <v>58</v>
-      </c>
-      <c r="E17">
-        <f>C17/B17</f>
-        <v>0.62365591397849462</v>
-      </c>
-      <c r="F17">
-        <f>(B17-C17)/B17</f>
-        <v>0.37634408602150538</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="AH19" t="s">
         <v>7</v>
       </c>
-      <c r="B19">
+      <c r="AI19">
         <v>113</v>
       </c>
-      <c r="C19">
-        <v>95</v>
-      </c>
-      <c r="E19">
-        <f>C19/B19</f>
-        <v>0.84070796460176989</v>
-      </c>
-      <c r="F19">
-        <f>(B19-C19)/B19</f>
-        <v>0.15929203539823009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AJ19">
+        <v>105</v>
+      </c>
+      <c r="AL19">
+        <f>AJ19/AI19</f>
+        <v>0.92920353982300885</v>
+      </c>
+      <c r="AM19">
+        <f>(AI19-AJ19)/AI19</f>
+        <v>7.0796460176991149E-2</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT19">
+        <v>113</v>
+      </c>
+      <c r="AU19">
+        <v>97</v>
+      </c>
+      <c r="AW19">
+        <f>AU19/AT19</f>
+        <v>0.8584070796460177</v>
+      </c>
+      <c r="AX19">
+        <f>(AT19-AU19)/AT19</f>
+        <v>0.1415929203539823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2446,6 +2490,74 @@
       <c r="F21">
         <f>C21/B21</f>
         <v>1.1083743842364532E-2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>812</v>
+      </c>
+      <c r="N21">
+        <v>9</v>
+      </c>
+      <c r="P21">
+        <f>(M21-N21)/M21</f>
+        <v>0.98891625615763545</v>
+      </c>
+      <c r="Q21">
+        <f>N21/M21</f>
+        <v>1.1083743842364532E-2</v>
+      </c>
+      <c r="W21" t="s">
+        <v>6</v>
+      </c>
+      <c r="X21">
+        <v>812</v>
+      </c>
+      <c r="Y21">
+        <v>55</v>
+      </c>
+      <c r="AA21">
+        <f>(X21-Y21)/X21</f>
+        <v>0.93226600985221675</v>
+      </c>
+      <c r="AB21">
+        <f>Y21/X21</f>
+        <v>6.7733990147783252E-2</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI21">
+        <v>812</v>
+      </c>
+      <c r="AJ21">
+        <v>47</v>
+      </c>
+      <c r="AL21">
+        <f>(AI21-AJ21)/AI21</f>
+        <v>0.94211822660098521</v>
+      </c>
+      <c r="AM21">
+        <f>AJ21/AI21</f>
+        <v>5.7881773399014777E-2</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT21">
+        <v>812</v>
+      </c>
+      <c r="AU21">
+        <v>24</v>
+      </c>
+      <c r="AW21">
+        <f>(AT21-AU21)/AT21</f>
+        <v>0.97044334975369462</v>
+      </c>
+      <c r="AX21">
+        <f>AU21/AT21</f>
+        <v>2.9556650246305417E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/CancerSEEK/Test Effectiveness.xlsx
+++ b/Data/CancerSEEK/Test Effectiveness.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Theirs" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Less+" sheetId="3" r:id="rId3"/>
     <sheet name="10x" sheetId="5" r:id="rId4"/>
     <sheet name="Omega" sheetId="6" r:id="rId5"/>
+    <sheet name="Benchmark" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="R11000000C8">#REF!</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="20">
   <si>
     <t>Colorectum</t>
   </si>
@@ -1447,26 +1448,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF21"/>
+  <dimension ref="A1:BQ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
       <c r="H1" t="s">
         <v>8</v>
       </c>
@@ -1482,34 +1483,41 @@
       <c r="AZ1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BK1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="H2" s="1">
         <f>MEDIAN(E7:E19)</f>
-        <v>0.79807692307692313</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+        <v>0.86725663716814161</v>
+      </c>
       <c r="S2" s="1">
         <f>MEDIAN(P7:P19)</f>
-        <v>0.75</v>
+        <v>0.79807692307692313</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="AD2" s="1">
         <f>MEDIAN(AA7:AA19)</f>
-        <v>0.93805309734513276</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
       <c r="AO2" s="1">
         <f>MEDIAN(AL7:AL19)</f>
-        <v>0.92307692307692313</v>
+        <v>0.93805309734513276</v>
       </c>
       <c r="AZ2" s="1">
         <f>MEDIAN(AW7:AW19)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="BK2" s="1">
+        <f>MEDIAN(BH7:BH19)</f>
         <v>0.8584070796460177</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
         <v>10</v>
       </c>
@@ -1525,34 +1533,41 @@
       <c r="AZ3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BK3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="H4" s="1">
         <f>SUM(C7:C19)/SUM(B7:B19)</f>
-        <v>0.70845771144278602</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+        <v>0.78606965174129351</v>
+      </c>
       <c r="S4" s="1">
         <f>SUM(N7:N19)/SUM(M7:M19)</f>
-        <v>0.68955223880597016</v>
+        <v>0.70845771144278602</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="AD4" s="1">
         <f>SUM(Y7:Y19)/SUM(X7:X19)</f>
-        <v>0.87661691542288556</v>
-      </c>
+        <v>0.68955223880597016</v>
+      </c>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
       <c r="AO4" s="1">
         <f>SUM(AJ7:AJ19)/SUM(AI7:AI19)</f>
-        <v>0.86368159203980099</v>
+        <v>0.87661691542288556</v>
       </c>
       <c r="AZ4" s="1">
         <f>SUM(AU7:AU19)/SUM(AT7:AT19)</f>
+        <v>0.86368159203980099</v>
+      </c>
+      <c r="BK4" s="1">
+        <f>SUM(BF7:BF19)/SUM(BE7:BE19)</f>
         <v>0.78308457711442792</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>17</v>
       </c>
@@ -1598,34 +1613,47 @@
       <c r="AZ5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BH5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="H6" s="1">
         <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
-        <v>0.83379196477710515</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+        <v>0.87506879471656573</v>
+      </c>
       <c r="S6" s="1">
         <f>SUM(N7:N19,M21-N21)/SUM(M7:M21)</f>
-        <v>0.82333516785910843</v>
+        <v>0.83379196477710515</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="AD6" s="1">
         <f>SUM(Y7:Y19,X21-Y21)/SUM(X7:X21)</f>
-        <v>0.90148596587782059</v>
-      </c>
+        <v>0.82333516785910843</v>
+      </c>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
       <c r="AO6" s="1">
         <f>SUM(AJ7:AJ19,AI21-AJ21)/SUM(AI7:AI21)</f>
-        <v>0.89873417721518989</v>
+        <v>0.90148596587782059</v>
       </c>
       <c r="AZ6" s="1">
         <f>SUM(AU7:AU19,AT21-AU21)/SUM(AT7:AT21)</f>
+        <v>0.89873417721518989</v>
+      </c>
+      <c r="BK6" s="1">
+        <f>SUM(BF7:BF19,BE21-BF21)/SUM(BE7:BE21)</f>
         <v>0.86681342872867362</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1633,15 +1661,15 @@
         <v>209</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E7">
         <f>C7/B7</f>
-        <v>0.46889952153110048</v>
+        <v>0.60765550239234445</v>
       </c>
       <c r="F7">
         <f>(B7-C7)/B7</f>
-        <v>0.53110047846889952</v>
+        <v>0.3923444976076555</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -1653,15 +1681,15 @@
         <v>209</v>
       </c>
       <c r="N7">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P7">
         <f>N7/M7</f>
-        <v>0.44019138755980863</v>
+        <v>0.46889952153110048</v>
       </c>
       <c r="Q7">
         <f>(M7-N7)/M7</f>
-        <v>0.55980861244019142</v>
+        <v>0.53110047846889952</v>
       </c>
       <c r="S7" t="s">
         <v>11</v>
@@ -1673,15 +1701,15 @@
         <v>209</v>
       </c>
       <c r="Y7">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="AA7">
         <f>Y7/X7</f>
-        <v>0.77033492822966509</v>
+        <v>0.44019138755980863</v>
       </c>
       <c r="AB7">
         <f>(X7-Y7)/X7</f>
-        <v>0.22966507177033493</v>
+        <v>0.55980861244019142</v>
       </c>
       <c r="AD7" t="s">
         <v>11</v>
@@ -1693,15 +1721,15 @@
         <v>209</v>
       </c>
       <c r="AJ7">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AL7">
         <f>AJ7/AI7</f>
-        <v>0.73205741626794263</v>
+        <v>0.77033492822966509</v>
       </c>
       <c r="AM7">
         <f>(AI7-AJ7)/AI7</f>
-        <v>0.26794258373205743</v>
+        <v>0.22966507177033493</v>
       </c>
       <c r="AO7" t="s">
         <v>11</v>
@@ -1713,25 +1741,45 @@
         <v>209</v>
       </c>
       <c r="AU7">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="AW7">
         <f>AU7/AT7</f>
-        <v>0.60765550239234445</v>
+        <v>0.73205741626794263</v>
       </c>
       <c r="AX7">
         <f>(AT7-AU7)/AT7</f>
-        <v>0.3923444976076555</v>
+        <v>0.26794258373205743</v>
       </c>
       <c r="AZ7" t="s">
         <v>11</v>
       </c>
-      <c r="BF7" s="1"/>
-    </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BD7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE7">
+        <v>209</v>
+      </c>
+      <c r="BF7">
+        <v>127</v>
+      </c>
+      <c r="BH7">
+        <f>BF7/BE7</f>
+        <v>0.60765550239234445</v>
+      </c>
+      <c r="BI7">
+        <f>(BE7-BF7)/BE7</f>
+        <v>0.3923444976076555</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ7" s="1"/>
+    </row>
+    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="H8">
         <f>C21</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S8">
         <f>N21</f>
@@ -1739,18 +1787,22 @@
       </c>
       <c r="AD8">
         <f>Y21</f>
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="AO8">
         <f>AJ21</f>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AZ8">
         <f>AU21</f>
+        <v>47</v>
+      </c>
+      <c r="BK8">
+        <f>BF21</f>
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1758,15 +1810,15 @@
         <v>388</v>
       </c>
       <c r="C9">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="E9">
         <f>C9/B9</f>
-        <v>0.72680412371134018</v>
+        <v>0.78608247422680411</v>
       </c>
       <c r="F9">
         <f>(B9-C9)/B9</f>
-        <v>0.27319587628865977</v>
+        <v>0.21391752577319587</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -1778,15 +1830,15 @@
         <v>388</v>
       </c>
       <c r="N9">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="P9">
         <f>N9/M9</f>
-        <v>0.70876288659793818</v>
+        <v>0.72680412371134018</v>
       </c>
       <c r="Q9">
         <f>(M9-N9)/M9</f>
-        <v>0.29123711340206188</v>
+        <v>0.27319587628865977</v>
       </c>
       <c r="S9" t="s">
         <v>13</v>
@@ -1798,15 +1850,15 @@
         <v>388</v>
       </c>
       <c r="Y9">
-        <v>343</v>
+        <v>275</v>
       </c>
       <c r="AA9">
         <f>Y9/X9</f>
-        <v>0.884020618556701</v>
+        <v>0.70876288659793818</v>
       </c>
       <c r="AB9">
         <f>(X9-Y9)/X9</f>
-        <v>0.11597938144329897</v>
+        <v>0.29123711340206188</v>
       </c>
       <c r="AD9" t="s">
         <v>13</v>
@@ -1818,15 +1870,15 @@
         <v>388</v>
       </c>
       <c r="AJ9">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AL9">
         <f>AJ9/AI9</f>
-        <v>0.87113402061855671</v>
+        <v>0.884020618556701</v>
       </c>
       <c r="AM9">
         <f>(AI9-AJ9)/AI9</f>
-        <v>0.12886597938144329</v>
+        <v>0.11597938144329897</v>
       </c>
       <c r="AO9" t="s">
         <v>13</v>
@@ -1838,43 +1890,67 @@
         <v>388</v>
       </c>
       <c r="AU9">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="AW9">
         <f>AU9/AT9</f>
-        <v>0.7989690721649485</v>
+        <v>0.87113402061855671</v>
       </c>
       <c r="AX9">
         <f>(AT9-AU9)/AT9</f>
-        <v>0.20103092783505155</v>
+        <v>0.12886597938144329</v>
       </c>
       <c r="AZ9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BD9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>388</v>
+      </c>
+      <c r="BF9">
+        <v>310</v>
+      </c>
+      <c r="BH9">
+        <f>BF9/BE9</f>
+        <v>0.7989690721649485</v>
+      </c>
+      <c r="BI9">
+        <f>(BE9-BF9)/BE9</f>
+        <v>0.20103092783505155</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="H10">
         <f t="shared" ref="H10" si="0">SUM(C7:C19)</f>
+        <v>790</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ref="S10" si="1">SUM(N7:N19)</f>
         <v>712</v>
-      </c>
-      <c r="S10">
-        <f>SUM(N7:N19)</f>
-        <v>693</v>
       </c>
       <c r="AD10">
         <f>SUM(Y7:Y19)</f>
-        <v>881</v>
+        <v>693</v>
       </c>
       <c r="AO10">
         <f>SUM(AJ7:AJ19)</f>
-        <v>868</v>
+        <v>881</v>
       </c>
       <c r="AZ10">
         <f>SUM(AU7:AU19)</f>
+        <v>868</v>
+      </c>
+      <c r="BK10">
+        <f>SUM(BF7:BF19)</f>
         <v>787</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1962,43 +2038,67 @@
         <v>44</v>
       </c>
       <c r="AU11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AW11">
         <f>AU11/AT11</f>
-        <v>0.95454545454545459</v>
+        <v>1</v>
       </c>
       <c r="AX11">
         <f>(AT11-AU11)/AT11</f>
-        <v>4.5454545454545456E-2</v>
+        <v>0</v>
       </c>
       <c r="AZ11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BD11" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE11">
+        <v>44</v>
+      </c>
+      <c r="BF11">
+        <v>42</v>
+      </c>
+      <c r="BH11">
+        <f>BF11/BE11</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="BI11">
+        <f>(BE11-BF11)/BE11</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="H12">
         <f>SUM(B7:B19)-SUM(C7:C19)</f>
-        <v>293</v>
+        <v>215</v>
       </c>
       <c r="S12">
         <f>SUM(M7:M19)-SUM(N7:N19)</f>
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="AD12">
         <f>SUM(X7:X19)-SUM(Y7:Y19)</f>
-        <v>124</v>
+        <v>312</v>
       </c>
       <c r="AO12">
         <f>SUM(AI7:AI19)-SUM(AJ7:AJ19)</f>
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AZ12">
         <f>SUM(AT7:AT19)-SUM(AU7:AU19)</f>
+        <v>137</v>
+      </c>
+      <c r="BK12">
+        <f>SUM(BE7:BE19)-SUM(BF7:BF19)</f>
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2006,15 +2106,15 @@
         <v>104</v>
       </c>
       <c r="C13">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E13">
         <f>C13/B13</f>
-        <v>0.79807692307692313</v>
+        <v>0.88461538461538458</v>
       </c>
       <c r="F13">
         <f>(B13-C13)/B13</f>
-        <v>0.20192307692307693</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -2026,15 +2126,15 @@
         <v>104</v>
       </c>
       <c r="N13">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P13">
         <f>N13/M13</f>
-        <v>0.75</v>
+        <v>0.79807692307692313</v>
       </c>
       <c r="Q13">
         <f>(M13-N13)/M13</f>
-        <v>0.25</v>
+        <v>0.20192307692307693</v>
       </c>
       <c r="S13" t="s">
         <v>14</v>
@@ -2046,15 +2146,15 @@
         <v>104</v>
       </c>
       <c r="Y13">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AA13">
         <f>Y13/X13</f>
-        <v>0.95192307692307687</v>
+        <v>0.75</v>
       </c>
       <c r="AB13">
         <f>(X13-Y13)/X13</f>
-        <v>4.807692307692308E-2</v>
+        <v>0.25</v>
       </c>
       <c r="AD13" t="s">
         <v>14</v>
@@ -2066,15 +2166,15 @@
         <v>104</v>
       </c>
       <c r="AJ13">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AL13">
         <f>AJ13/AI13</f>
-        <v>0.92307692307692313</v>
+        <v>0.95192307692307687</v>
       </c>
       <c r="AM13">
         <f>(AI13-AJ13)/AI13</f>
-        <v>7.6923076923076927E-2</v>
+        <v>4.807692307692308E-2</v>
       </c>
       <c r="AO13" t="s">
         <v>14</v>
@@ -2086,24 +2186,44 @@
         <v>104</v>
       </c>
       <c r="AU13">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AW13">
         <f>AU13/AT13</f>
-        <v>0.875</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="AX13">
         <f>(AT13-AU13)/AT13</f>
-        <v>0.125</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="AZ13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BD13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE13">
+        <v>104</v>
+      </c>
+      <c r="BF13">
+        <v>91</v>
+      </c>
+      <c r="BH13">
+        <f>BF13/BE13</f>
+        <v>0.875</v>
+      </c>
+      <c r="BI13">
+        <f>(BE13-BF13)/BE13</f>
+        <v>0.125</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="H14">
         <f>B21-C21</f>
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="S14">
         <f>M21-N21</f>
@@ -2111,18 +2231,22 @@
       </c>
       <c r="AD14">
         <f>X21-Y21</f>
-        <v>757</v>
+        <v>803</v>
       </c>
       <c r="AO14">
         <f>AI21-AJ21</f>
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="AZ14">
         <f>AT21-AU21</f>
+        <v>765</v>
+      </c>
+      <c r="BK14">
+        <f>BE21-BF21</f>
         <v>788</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2130,15 +2254,15 @@
         <v>54</v>
       </c>
       <c r="C15">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <f>C15/B15</f>
-        <v>0.96296296296296291</v>
+        <v>0.98148148148148151</v>
       </c>
       <c r="F15">
         <f>(B15-C15)/B15</f>
-        <v>3.7037037037037035E-2</v>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -2150,15 +2274,15 @@
         <v>54</v>
       </c>
       <c r="N15">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P15">
         <f>N15/M15</f>
-        <v>0.94444444444444442</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="Q15">
         <f>(M15-N15)/M15</f>
-        <v>5.5555555555555552E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="S15" t="s">
         <v>15</v>
@@ -2170,15 +2294,15 @@
         <v>54</v>
       </c>
       <c r="Y15">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA15">
         <f>Y15/X15</f>
-        <v>0.96296296296296291</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="AB15">
         <f>(X15-Y15)/X15</f>
-        <v>3.7037037037037035E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="AD15" t="s">
         <v>15</v>
@@ -2190,15 +2314,15 @@
         <v>54</v>
       </c>
       <c r="AJ15">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AL15">
         <f>AJ15/AI15</f>
-        <v>0.98148148148148151</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="AM15">
         <f>(AI15-AJ15)/AI15</f>
-        <v>1.8518518518518517E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="AO15" t="s">
         <v>15</v>
@@ -2223,42 +2347,66 @@
       <c r="AZ15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BD15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE15">
+        <v>54</v>
+      </c>
+      <c r="BF15">
+        <v>53</v>
+      </c>
+      <c r="BH15">
+        <f>BF15/BE15</f>
+        <v>0.98148148148148151</v>
+      </c>
+      <c r="BI15">
+        <f>(BE15-BF15)/BE15</f>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="H16" s="1">
-        <f t="shared" ref="H16" si="1">H10/(H10+H12)</f>
+        <f t="shared" ref="H16" si="2">H10/(H10+H12)</f>
+        <v>0.78606965174129351</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" ref="S16" si="3">S10/(S10+S12)</f>
         <v>0.70845771144278602</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1">
-        <f>S10/(S10+S12)</f>
-        <v>0.68955223880597016</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
       <c r="AD16" s="1">
         <f>AD10/(AD10+AD12)</f>
-        <v>0.87661691542288556</v>
-      </c>
+        <v>0.68955223880597016</v>
+      </c>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
       <c r="AO16" s="1">
         <f>AO10/(AO10+AO12)</f>
-        <v>0.86368159203980099</v>
+        <v>0.87661691542288556</v>
       </c>
       <c r="AZ16" s="1">
         <f>AZ10/(AZ10+AZ12)</f>
+        <v>0.86368159203980099</v>
+      </c>
+      <c r="BK16" s="1">
+        <f>BK10/(BK10+BK12)</f>
         <v>0.78308457711442792</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2266,15 +2414,15 @@
         <v>93</v>
       </c>
       <c r="C17">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E17">
         <f>C17/B17</f>
-        <v>0.64516129032258063</v>
+        <v>0.76344086021505375</v>
       </c>
       <c r="F17">
         <f>(B17-C17)/B17</f>
-        <v>0.35483870967741937</v>
+        <v>0.23655913978494625</v>
       </c>
       <c r="H17" t="s">
         <v>16</v>
@@ -2286,15 +2434,15 @@
         <v>93</v>
       </c>
       <c r="N17">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P17">
         <f>N17/M17</f>
-        <v>0.62365591397849462</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="Q17">
         <f>(M17-N17)/M17</f>
-        <v>0.37634408602150538</v>
+        <v>0.35483870967741937</v>
       </c>
       <c r="S17" t="s">
         <v>16</v>
@@ -2306,15 +2454,15 @@
         <v>93</v>
       </c>
       <c r="Y17">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AA17">
         <f>Y17/X17</f>
-        <v>0.81720430107526887</v>
+        <v>0.62365591397849462</v>
       </c>
       <c r="AB17">
         <f>(X17-Y17)/X17</f>
-        <v>0.18279569892473119</v>
+        <v>0.37634408602150538</v>
       </c>
       <c r="AD17" t="s">
         <v>16</v>
@@ -2326,15 +2474,15 @@
         <v>93</v>
       </c>
       <c r="AJ17">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AL17">
         <f>AJ17/AI17</f>
-        <v>0.84946236559139787</v>
+        <v>0.81720430107526887</v>
       </c>
       <c r="AM17">
         <f>(AI17-AJ17)/AI17</f>
-        <v>0.15053763440860216</v>
+        <v>0.18279569892473119</v>
       </c>
       <c r="AO17" t="s">
         <v>16</v>
@@ -2346,27 +2494,45 @@
         <v>93</v>
       </c>
       <c r="AU17">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="AW17">
         <f>AU17/AT17</f>
-        <v>0.72043010752688175</v>
+        <v>0.84946236559139787</v>
       </c>
       <c r="AX17">
         <f>(AT17-AU17)/AT17</f>
-        <v>0.27956989247311825</v>
+        <v>0.15053763440860216</v>
       </c>
       <c r="AZ17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BD17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE17">
+        <v>93</v>
+      </c>
+      <c r="BF17">
+        <v>67</v>
+      </c>
+      <c r="BH17">
+        <f>BF17/BE17</f>
+        <v>0.72043010752688175</v>
+      </c>
+      <c r="BI17">
+        <f>(BE17-BF17)/BE17</f>
+        <v>0.27956989247311825</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
       <c r="H18" s="1">
         <f>H14/(H14+H8)</f>
-        <v>0.98891625615763545</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+        <v>0.98522167487684731</v>
+      </c>
       <c r="S18" s="1">
         <f>S14/(S14+S8)</f>
         <v>0.98891625615763545</v>
@@ -2375,18 +2541,24 @@
       <c r="U18" s="1"/>
       <c r="AD18" s="1">
         <f>AD14/(AD14+AD8)</f>
-        <v>0.93226600985221675</v>
-      </c>
+        <v>0.98891625615763545</v>
+      </c>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
       <c r="AO18" s="1">
         <f>AO14/(AO14+AO8)</f>
-        <v>0.94211822660098521</v>
+        <v>0.93226600985221675</v>
       </c>
       <c r="AZ18" s="1">
         <f>AZ14/(AZ14+AZ8)</f>
+        <v>0.94211822660098521</v>
+      </c>
+      <c r="BK18" s="1">
+        <f>BK14/(BK14+BK8)</f>
         <v>0.97044334975369462</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2394,15 +2566,15 @@
         <v>113</v>
       </c>
       <c r="C19">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E19">
         <f>C19/B19</f>
-        <v>0.82300884955752207</v>
+        <v>0.86725663716814161</v>
       </c>
       <c r="F19">
         <f>(B19-C19)/B19</f>
-        <v>0.17699115044247787</v>
+        <v>0.13274336283185842</v>
       </c>
       <c r="L19" t="s">
         <v>7</v>
@@ -2411,15 +2583,15 @@
         <v>113</v>
       </c>
       <c r="N19">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P19">
         <f>N19/M19</f>
-        <v>0.84070796460176989</v>
+        <v>0.82300884955752207</v>
       </c>
       <c r="Q19">
         <f>(M19-N19)/M19</f>
-        <v>0.15929203539823009</v>
+        <v>0.17699115044247787</v>
       </c>
       <c r="W19" t="s">
         <v>7</v>
@@ -2428,15 +2600,15 @@
         <v>113</v>
       </c>
       <c r="Y19">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="AA19">
         <f>Y19/X19</f>
-        <v>0.93805309734513276</v>
+        <v>0.84070796460176989</v>
       </c>
       <c r="AB19">
         <f>(X19-Y19)/X19</f>
-        <v>6.1946902654867256E-2</v>
+        <v>0.15929203539823009</v>
       </c>
       <c r="AH19" t="s">
         <v>7</v>
@@ -2445,15 +2617,15 @@
         <v>113</v>
       </c>
       <c r="AJ19">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL19">
         <f>AJ19/AI19</f>
-        <v>0.92920353982300885</v>
+        <v>0.93805309734513276</v>
       </c>
       <c r="AM19">
         <f>(AI19-AJ19)/AI19</f>
-        <v>7.0796460176991149E-2</v>
+        <v>6.1946902654867256E-2</v>
       </c>
       <c r="AS19" t="s">
         <v>7</v>
@@ -2462,18 +2634,35 @@
         <v>113</v>
       </c>
       <c r="AU19">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AW19">
         <f>AU19/AT19</f>
-        <v>0.8584070796460177</v>
+        <v>0.92920353982300885</v>
       </c>
       <c r="AX19">
         <f>(AT19-AU19)/AT19</f>
+        <v>7.0796460176991149E-2</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE19">
+        <v>113</v>
+      </c>
+      <c r="BF19">
+        <v>97</v>
+      </c>
+      <c r="BH19">
+        <f>BF19/BE19</f>
+        <v>0.8584070796460177</v>
+      </c>
+      <c r="BI19">
+        <f>(BE19-BF19)/BE19</f>
         <v>0.1415929203539823</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2481,15 +2670,15 @@
         <v>812</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <f>(B21-C21)/B21</f>
-        <v>0.98891625615763545</v>
+        <v>0.98522167487684731</v>
       </c>
       <c r="F21">
         <f>C21/B21</f>
-        <v>1.1083743842364532E-2</v>
+        <v>1.4778325123152709E-2</v>
       </c>
       <c r="L21" t="s">
         <v>6</v>
@@ -2515,15 +2704,15 @@
         <v>812</v>
       </c>
       <c r="Y21">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="AA21">
         <f>(X21-Y21)/X21</f>
-        <v>0.93226600985221675</v>
+        <v>0.98891625615763545</v>
       </c>
       <c r="AB21">
         <f>Y21/X21</f>
-        <v>6.7733990147783252E-2</v>
+        <v>1.1083743842364532E-2</v>
       </c>
       <c r="AH21" t="s">
         <v>6</v>
@@ -2532,15 +2721,15 @@
         <v>812</v>
       </c>
       <c r="AJ21">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AL21">
         <f>(AI21-AJ21)/AI21</f>
-        <v>0.94211822660098521</v>
+        <v>0.93226600985221675</v>
       </c>
       <c r="AM21">
         <f>AJ21/AI21</f>
-        <v>5.7881773399014777E-2</v>
+        <v>6.7733990147783252E-2</v>
       </c>
       <c r="AS21" t="s">
         <v>6</v>
@@ -2549,18 +2738,314 @@
         <v>812</v>
       </c>
       <c r="AU21">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="AW21">
         <f>(AT21-AU21)/AT21</f>
-        <v>0.97044334975369462</v>
+        <v>0.94211822660098521</v>
       </c>
       <c r="AX21">
         <f>AU21/AT21</f>
+        <v>5.7881773399014777E-2</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE21">
+        <v>812</v>
+      </c>
+      <c r="BF21">
+        <v>24</v>
+      </c>
+      <c r="BH21">
+        <f>(BE21-BF21)/BE21</f>
+        <v>0.97044334975369462</v>
+      </c>
+      <c r="BI21">
+        <f>BF21/BE21</f>
         <v>2.9556650246305417E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>120</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f>MEDIAN(I7:I19)</f>
+        <v>0.95575221238938057</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <f>SUM(G7:G19)/SUM(F7:F19)</f>
+        <v>0.91243781094527365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <f>SUM(G7:G19,F21-G21)/SUM(F7:F21)</f>
+        <v>0.91029168959823881</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>209</v>
+      </c>
+      <c r="G7">
+        <v>170</v>
+      </c>
+      <c r="I7">
+        <f>G7/F7</f>
+        <v>0.8133971291866029</v>
+      </c>
+      <c r="J7">
+        <f>(F7-G7)/F7</f>
+        <v>0.18660287081339713</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f>G21</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>388</v>
+      </c>
+      <c r="G9">
+        <v>359</v>
+      </c>
+      <c r="I9">
+        <f>G9/F9</f>
+        <v>0.92525773195876293</v>
+      </c>
+      <c r="J9">
+        <f>(F9-G9)/F9</f>
+        <v>7.4742268041237112E-2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f t="shared" ref="L10" si="0">SUM(G7:G19)</f>
+        <v>917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>44</v>
+      </c>
+      <c r="G11">
+        <v>44</v>
+      </c>
+      <c r="I11">
+        <f>G11/F11</f>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <f>(F11-G11)/F11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <f>SUM(F7:F19)-SUM(G7:G19)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>104</v>
+      </c>
+      <c r="G13">
+        <v>103</v>
+      </c>
+      <c r="I13">
+        <f>G13/F13</f>
+        <v>0.99038461538461542</v>
+      </c>
+      <c r="J13">
+        <f>(F13-G13)/F13</f>
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f>F21-G21</f>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>54</v>
+      </c>
+      <c r="G15">
+        <v>53</v>
+      </c>
+      <c r="I15">
+        <f>G15/F15</f>
+        <v>0.98148148148148151</v>
+      </c>
+      <c r="J15">
+        <f>(F15-G15)/F15</f>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <f t="shared" ref="L16" si="1">L10/(L10+L12)</f>
+        <v>0.91243781094527365</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>93</v>
+      </c>
+      <c r="G17">
+        <v>80</v>
+      </c>
+      <c r="I17">
+        <f>G17/F17</f>
+        <v>0.86021505376344087</v>
+      </c>
+      <c r="J17">
+        <f>(F17-G17)/F17</f>
+        <v>0.13978494623655913</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <f>L14/(L14+L8)</f>
+        <v>0.9076354679802956</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>113</v>
+      </c>
+      <c r="G19">
+        <v>108</v>
+      </c>
+      <c r="I19">
+        <f>G19/F19</f>
+        <v>0.95575221238938057</v>
+      </c>
+      <c r="J19">
+        <f>(F19-G19)/F19</f>
+        <v>4.4247787610619468E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>812</v>
+      </c>
+      <c r="G21">
+        <v>75</v>
+      </c>
+      <c r="I21">
+        <f>(F21-G21)/F21</f>
+        <v>0.9076354679802956</v>
+      </c>
+      <c r="J21">
+        <f>G21/F21</f>
+        <v>9.2364532019704432E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/CancerSEEK/Test Effectiveness.xlsx
+++ b/Data/CancerSEEK/Test Effectiveness.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Theirs" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="10x" sheetId="5" r:id="rId4"/>
     <sheet name="Omega" sheetId="6" r:id="rId5"/>
     <sheet name="Benchmark" sheetId="7" r:id="rId6"/>
+    <sheet name="New" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="R11000000C8">#REF!</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="22">
   <si>
     <t>Colorectum</t>
   </si>
@@ -93,6 +94,12 @@
   <si>
     <t>Fair warning this was trained and tested on mainly the same data</t>
   </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>10:1</t>
+  </si>
 </sst>
 </file>
 
@@ -137,12 +144,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,7 +436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -527,16 +537,18 @@
       <c r="C7">
         <v>70</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f>C7/B7</f>
         <v>0.3349282296650718</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f>(B7-C7)/B7</f>
         <v>0.66507177033492826</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -549,14 +561,18 @@
       <c r="C9">
         <v>252</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f>C9/B9</f>
         <v>0.64948453608247425</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f>(B9-C9)/B9</f>
         <v>0.35051546391752575</v>
       </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -568,14 +584,18 @@
       <c r="C11">
         <v>43</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <f>C11/B11</f>
         <v>0.97727272727272729</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <f>(B11-C11)/B11</f>
         <v>2.2727272727272728E-2</v>
       </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -587,14 +607,18 @@
       <c r="C13">
         <v>61</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <f>C13/B13</f>
         <v>0.58653846153846156</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <f>(B13-C13)/B13</f>
         <v>0.41346153846153844</v>
       </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -606,14 +630,18 @@
       <c r="C15">
         <v>53</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <f>C15/B15</f>
         <v>0.98148148148148151</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <f>(B15-C15)/B15</f>
         <v>1.8518518518518517E-2</v>
       </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -625,14 +653,18 @@
       <c r="C17">
         <v>67</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <f>C17/B17</f>
         <v>0.72043010752688175</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <f>(B17-C17)/B17</f>
         <v>0.27956989247311825</v>
       </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -644,14 +676,18 @@
       <c r="C19">
         <v>80</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <f>C19/B19</f>
         <v>0.70796460176991149</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <f>(B19-C19)/B19</f>
         <v>0.29203539823008851</v>
       </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -663,11 +699,11 @@
       <c r="C21">
         <v>7</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <f>(B21-C21)/B21</f>
         <v>0.99137931034482762</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <f>C21/B21</f>
         <v>8.6206896551724137E-3</v>
       </c>
@@ -681,7 +717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -780,14 +818,18 @@
       <c r="C7">
         <v>14</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f>C7/B7</f>
         <v>0.875</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f>(B7-C7)/B7</f>
         <v>0.125</v>
       </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -799,14 +841,18 @@
       <c r="C9">
         <v>39</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f>C9/B9</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f>(B9-C9)/B9</f>
         <v>0.13333333333333333</v>
       </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -818,14 +864,18 @@
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <f>C11/B11</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <f>(B11-C11)/B11</f>
         <v>0.16666666666666666</v>
       </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -837,14 +887,18 @@
       <c r="C13">
         <v>15</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <f>C13/B13</f>
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <f>(B13-C13)/B13</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -856,14 +910,18 @@
       <c r="C15">
         <v>4</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <f>C15/B15</f>
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <f>(B15-C15)/B15</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -875,14 +933,18 @@
       <c r="C17">
         <v>4</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <f>C17/B17</f>
         <v>0.8</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <f>(B17-C17)/B17</f>
         <v>0.2</v>
       </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -894,14 +956,18 @@
       <c r="C19">
         <v>14</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <f>C19/B19</f>
         <v>1</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <f>(B19-C19)/B19</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -913,11 +979,11 @@
       <c r="C21">
         <v>7</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <f>(B21-C21)/B21</f>
         <v>0.90666666666666662</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <f>C21/B21</f>
         <v>9.3333333333333338E-2</v>
       </c>
@@ -933,7 +999,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="E7" sqref="E7:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,14 +1110,18 @@
       <c r="C7">
         <v>149</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f>C7/B7</f>
         <v>0.71291866028708128</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f>(B7-C7)/B7</f>
         <v>0.28708133971291866</v>
       </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1063,14 +1133,18 @@
       <c r="C9">
         <v>337</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f>C9/B9</f>
         <v>0.86855670103092786</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f>(B9-C9)/B9</f>
         <v>0.13144329896907217</v>
       </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1082,14 +1156,18 @@
       <c r="C11">
         <v>43</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <f>C11/B11</f>
         <v>0.97727272727272729</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <f>(B11-C11)/B11</f>
         <v>2.2727272727272728E-2</v>
       </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1101,14 +1179,18 @@
       <c r="C13">
         <v>97</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <f>C13/B13</f>
         <v>0.93269230769230771</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <f>(B13-C13)/B13</f>
         <v>6.7307692307692304E-2</v>
       </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1120,14 +1202,18 @@
       <c r="C15">
         <v>53</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <f>C15/B15</f>
         <v>0.98148148148148151</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <f>(B15-C15)/B15</f>
         <v>1.8518518518518517E-2</v>
       </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1139,14 +1225,18 @@
       <c r="C17">
         <v>80</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <f>C17/B17</f>
         <v>0.86021505376344087</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <f>(B17-C17)/B17</f>
         <v>0.13978494623655913</v>
       </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1158,14 +1248,18 @@
       <c r="C19">
         <v>104</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <f>C19/B19</f>
         <v>0.92035398230088494</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <f>(B19-C19)/B19</f>
         <v>7.9646017699115043E-2</v>
       </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1177,11 +1271,11 @@
       <c r="C21">
         <v>5</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <f>(B21-C21)/B21</f>
         <v>0.99384236453201968</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <f>C21/B21</f>
         <v>6.1576354679802959E-3</v>
       </c>
@@ -1199,7 +1293,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1298,15 +1394,19 @@
       <c r="C7">
         <v>166</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f>C7/B7</f>
         <v>0.79425837320574166</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f>(B7-C7)/B7</f>
         <v>0.20574162679425836</v>
       </c>
       <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1318,14 +1418,18 @@
       <c r="C9">
         <v>338</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f>C9/B9</f>
         <v>0.87113402061855671</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f>(B9-C9)/B9</f>
         <v>0.12886597938144329</v>
       </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1337,14 +1441,18 @@
       <c r="C11">
         <v>44</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <f>C11/B11</f>
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <f>(B11-C11)/B11</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1356,14 +1464,18 @@
       <c r="C13">
         <v>98</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <f>C13/B13</f>
         <v>0.94230769230769229</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <f>(B13-C13)/B13</f>
         <v>5.7692307692307696E-2</v>
       </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1375,14 +1487,18 @@
       <c r="C15">
         <v>54</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <f>C15/B15</f>
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <f>(B15-C15)/B15</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1394,14 +1510,18 @@
       <c r="C17">
         <v>80</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <f>C17/B17</f>
         <v>0.86021505376344087</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <f>(B17-C17)/B17</f>
         <v>0.13978494623655913</v>
       </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1413,14 +1533,18 @@
       <c r="C19">
         <v>105</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <f>C19/B19</f>
         <v>0.92920353982300885</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <f>(B19-C19)/B19</f>
         <v>7.0796460176991149E-2</v>
       </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1432,11 +1556,11 @@
       <c r="C21">
         <v>66</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <f>(B21-C21)/B21</f>
         <v>0.91871921182266014</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <f>C21/B21</f>
         <v>8.1280788177339899E-2</v>
       </c>
@@ -1448,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ21"/>
+  <dimension ref="A1:BQ22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H21"/>
+    <sheetView topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BI22" sqref="BI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,11 +1787,11 @@
       <c r="C7">
         <v>127</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f>C7/B7</f>
         <v>0.60765550239234445</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f>(B7-C7)/B7</f>
         <v>0.3923444976076555</v>
       </c>
@@ -1683,11 +1807,11 @@
       <c r="N7">
         <v>98</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <f>N7/M7</f>
         <v>0.46889952153110048</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <f>(M7-N7)/M7</f>
         <v>0.53110047846889952</v>
       </c>
@@ -1703,11 +1827,11 @@
       <c r="Y7">
         <v>92</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="1">
         <f>Y7/X7</f>
         <v>0.44019138755980863</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="1">
         <f>(X7-Y7)/X7</f>
         <v>0.55980861244019142</v>
       </c>
@@ -1723,11 +1847,11 @@
       <c r="AJ7">
         <v>161</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="1">
         <f>AJ7/AI7</f>
         <v>0.77033492822966509</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" s="1">
         <f>(AI7-AJ7)/AI7</f>
         <v>0.22966507177033493</v>
       </c>
@@ -1743,11 +1867,11 @@
       <c r="AU7">
         <v>153</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" s="1">
         <f>AU7/AT7</f>
         <v>0.73205741626794263</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" s="1">
         <f>(AT7-AU7)/AT7</f>
         <v>0.26794258373205743</v>
       </c>
@@ -1763,11 +1887,11 @@
       <c r="BF7">
         <v>127</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" s="1">
         <f>BF7/BE7</f>
         <v>0.60765550239234445</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" s="1">
         <f>(BE7-BF7)/BE7</f>
         <v>0.3923444976076555</v>
       </c>
@@ -1777,26 +1901,38 @@
       <c r="BQ7" s="1"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="H8">
         <f>C21</f>
         <v>12</v>
       </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
       <c r="S8">
         <f>N21</f>
         <v>9</v>
       </c>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
       <c r="AD8">
         <f>Y21</f>
         <v>9</v>
       </c>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
       <c r="AO8">
         <f>AJ21</f>
         <v>55</v>
       </c>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
       <c r="AZ8">
         <f>AU21</f>
         <v>47</v>
       </c>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
       <c r="BK8">
         <f>BF21</f>
         <v>24</v>
@@ -1812,11 +1948,11 @@
       <c r="C9">
         <v>305</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f>C9/B9</f>
         <v>0.78608247422680411</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f>(B9-C9)/B9</f>
         <v>0.21391752577319587</v>
       </c>
@@ -1832,11 +1968,11 @@
       <c r="N9">
         <v>282</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="1">
         <f>N9/M9</f>
         <v>0.72680412371134018</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="1">
         <f>(M9-N9)/M9</f>
         <v>0.27319587628865977</v>
       </c>
@@ -1852,11 +1988,11 @@
       <c r="Y9">
         <v>275</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="1">
         <f>Y9/X9</f>
         <v>0.70876288659793818</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="1">
         <f>(X9-Y9)/X9</f>
         <v>0.29123711340206188</v>
       </c>
@@ -1872,11 +2008,11 @@
       <c r="AJ9">
         <v>343</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" s="1">
         <f>AJ9/AI9</f>
         <v>0.884020618556701</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" s="1">
         <f>(AI9-AJ9)/AI9</f>
         <v>0.11597938144329897</v>
       </c>
@@ -1892,11 +2028,11 @@
       <c r="AU9">
         <v>338</v>
       </c>
-      <c r="AW9">
+      <c r="AW9" s="1">
         <f>AU9/AT9</f>
         <v>0.87113402061855671</v>
       </c>
-      <c r="AX9">
+      <c r="AX9" s="1">
         <f>(AT9-AU9)/AT9</f>
         <v>0.12886597938144329</v>
       </c>
@@ -1912,11 +2048,11 @@
       <c r="BF9">
         <v>310</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" s="1">
         <f>BF9/BE9</f>
         <v>0.7989690721649485</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" s="1">
         <f>(BE9-BF9)/BE9</f>
         <v>0.20103092783505155</v>
       </c>
@@ -1925,26 +2061,38 @@
       </c>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="H10">
         <f t="shared" ref="H10" si="0">SUM(C7:C19)</f>
         <v>790</v>
       </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
       <c r="S10">
         <f t="shared" ref="S10" si="1">SUM(N7:N19)</f>
         <v>712</v>
       </c>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
       <c r="AD10">
         <f>SUM(Y7:Y19)</f>
         <v>693</v>
       </c>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
       <c r="AO10">
         <f>SUM(AJ7:AJ19)</f>
         <v>881</v>
       </c>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
       <c r="AZ10">
         <f>SUM(AU7:AU19)</f>
         <v>868</v>
       </c>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
       <c r="BK10">
         <f>SUM(BF7:BF19)</f>
         <v>787</v>
@@ -1960,11 +2108,11 @@
       <c r="C11">
         <v>44</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <f>C11/B11</f>
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <f>(B11-C11)/B11</f>
         <v>0</v>
       </c>
@@ -1980,11 +2128,11 @@
       <c r="N11">
         <v>44</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="1">
         <f>N11/M11</f>
         <v>1</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="1">
         <f>(M11-N11)/M11</f>
         <v>0</v>
       </c>
@@ -2000,11 +2148,11 @@
       <c r="Y11">
         <v>44</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="1">
         <f>Y11/X11</f>
         <v>1</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="1">
         <f>(X11-Y11)/X11</f>
         <v>0</v>
       </c>
@@ -2020,11 +2168,11 @@
       <c r="AJ11">
         <v>44</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" s="1">
         <f>AJ11/AI11</f>
         <v>1</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" s="1">
         <f>(AI11-AJ11)/AI11</f>
         <v>0</v>
       </c>
@@ -2040,11 +2188,11 @@
       <c r="AU11">
         <v>44</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" s="1">
         <f>AU11/AT11</f>
         <v>1</v>
       </c>
-      <c r="AX11">
+      <c r="AX11" s="1">
         <f>(AT11-AU11)/AT11</f>
         <v>0</v>
       </c>
@@ -2060,11 +2208,11 @@
       <c r="BF11">
         <v>42</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" s="1">
         <f>BF11/BE11</f>
         <v>0.95454545454545459</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" s="1">
         <f>(BE11-BF11)/BE11</f>
         <v>4.5454545454545456E-2</v>
       </c>
@@ -2073,26 +2221,38 @@
       </c>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="H12">
         <f>SUM(B7:B19)-SUM(C7:C19)</f>
         <v>215</v>
       </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
       <c r="S12">
         <f>SUM(M7:M19)-SUM(N7:N19)</f>
         <v>293</v>
       </c>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
       <c r="AD12">
         <f>SUM(X7:X19)-SUM(Y7:Y19)</f>
         <v>312</v>
       </c>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
       <c r="AO12">
         <f>SUM(AI7:AI19)-SUM(AJ7:AJ19)</f>
         <v>124</v>
       </c>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
       <c r="AZ12">
         <f>SUM(AT7:AT19)-SUM(AU7:AU19)</f>
         <v>137</v>
       </c>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
       <c r="BK12">
         <f>SUM(BE7:BE19)-SUM(BF7:BF19)</f>
         <v>218</v>
@@ -2108,11 +2268,11 @@
       <c r="C13">
         <v>92</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <f>C13/B13</f>
         <v>0.88461538461538458</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <f>(B13-C13)/B13</f>
         <v>0.11538461538461539</v>
       </c>
@@ -2128,11 +2288,11 @@
       <c r="N13">
         <v>83</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="1">
         <f>N13/M13</f>
         <v>0.79807692307692313</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="1">
         <f>(M13-N13)/M13</f>
         <v>0.20192307692307693</v>
       </c>
@@ -2148,11 +2308,11 @@
       <c r="Y13">
         <v>78</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="1">
         <f>Y13/X13</f>
         <v>0.75</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="1">
         <f>(X13-Y13)/X13</f>
         <v>0.25</v>
       </c>
@@ -2168,11 +2328,11 @@
       <c r="AJ13">
         <v>99</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" s="1">
         <f>AJ13/AI13</f>
         <v>0.95192307692307687</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" s="1">
         <f>(AI13-AJ13)/AI13</f>
         <v>4.807692307692308E-2</v>
       </c>
@@ -2188,11 +2348,11 @@
       <c r="AU13">
         <v>96</v>
       </c>
-      <c r="AW13">
+      <c r="AW13" s="1">
         <f>AU13/AT13</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="AX13">
+      <c r="AX13" s="1">
         <f>(AT13-AU13)/AT13</f>
         <v>7.6923076923076927E-2</v>
       </c>
@@ -2208,11 +2368,11 @@
       <c r="BF13">
         <v>91</v>
       </c>
-      <c r="BH13">
+      <c r="BH13" s="1">
         <f>BF13/BE13</f>
         <v>0.875</v>
       </c>
-      <c r="BI13">
+      <c r="BI13" s="1">
         <f>(BE13-BF13)/BE13</f>
         <v>0.125</v>
       </c>
@@ -2221,26 +2381,38 @@
       </c>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="H14">
         <f>B21-C21</f>
         <v>800</v>
       </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
       <c r="S14">
         <f>M21-N21</f>
         <v>803</v>
       </c>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
       <c r="AD14">
         <f>X21-Y21</f>
         <v>803</v>
       </c>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
       <c r="AO14">
         <f>AI21-AJ21</f>
         <v>757</v>
       </c>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
       <c r="AZ14">
         <f>AT21-AU21</f>
         <v>765</v>
       </c>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
       <c r="BK14">
         <f>BE21-BF21</f>
         <v>788</v>
@@ -2256,11 +2428,11 @@
       <c r="C15">
         <v>53</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <f>C15/B15</f>
         <v>0.98148148148148151</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <f>(B15-C15)/B15</f>
         <v>1.8518518518518517E-2</v>
       </c>
@@ -2276,11 +2448,11 @@
       <c r="N15">
         <v>52</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="1">
         <f>N15/M15</f>
         <v>0.96296296296296291</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="1">
         <f>(M15-N15)/M15</f>
         <v>3.7037037037037035E-2</v>
       </c>
@@ -2296,11 +2468,11 @@
       <c r="Y15">
         <v>51</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="1">
         <f>Y15/X15</f>
         <v>0.94444444444444442</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="1">
         <f>(X15-Y15)/X15</f>
         <v>5.5555555555555552E-2</v>
       </c>
@@ -2316,11 +2488,11 @@
       <c r="AJ15">
         <v>52</v>
       </c>
-      <c r="AL15">
+      <c r="AL15" s="1">
         <f>AJ15/AI15</f>
         <v>0.96296296296296291</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" s="1">
         <f>(AI15-AJ15)/AI15</f>
         <v>3.7037037037037035E-2</v>
       </c>
@@ -2336,11 +2508,11 @@
       <c r="AU15">
         <v>53</v>
       </c>
-      <c r="AW15">
+      <c r="AW15" s="1">
         <f>AU15/AT15</f>
         <v>0.98148148148148151</v>
       </c>
-      <c r="AX15">
+      <c r="AX15" s="1">
         <f>(AT15-AU15)/AT15</f>
         <v>1.8518518518518517E-2</v>
       </c>
@@ -2356,11 +2528,11 @@
       <c r="BF15">
         <v>53</v>
       </c>
-      <c r="BH15">
+      <c r="BH15" s="1">
         <f>BF15/BE15</f>
         <v>0.98148148148148151</v>
       </c>
-      <c r="BI15">
+      <c r="BI15" s="1">
         <f>(BE15-BF15)/BE15</f>
         <v>1.8518518518518517E-2</v>
       </c>
@@ -2369,10 +2541,14 @@
       </c>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="H16" s="1">
         <f t="shared" ref="H16" si="2">H10/(H10+H12)</f>
         <v>0.78606965174129351</v>
       </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
       <c r="S16" s="1">
         <f t="shared" ref="S16" si="3">S10/(S10+S12)</f>
         <v>0.70845771144278602</v>
@@ -2393,14 +2569,20 @@
       </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
       <c r="AO16" s="1">
         <f>AO10/(AO10+AO12)</f>
         <v>0.87661691542288556</v>
       </c>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
       <c r="AZ16" s="1">
         <f>AZ10/(AZ10+AZ12)</f>
         <v>0.86368159203980099</v>
       </c>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
       <c r="BK16" s="1">
         <f>BK10/(BK10+BK12)</f>
         <v>0.78308457711442792</v>
@@ -2416,11 +2598,11 @@
       <c r="C17">
         <v>71</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <f>C17/B17</f>
         <v>0.76344086021505375</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <f>(B17-C17)/B17</f>
         <v>0.23655913978494625</v>
       </c>
@@ -2436,11 +2618,11 @@
       <c r="N17">
         <v>60</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="1">
         <f>N17/M17</f>
         <v>0.64516129032258063</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="1">
         <f>(M17-N17)/M17</f>
         <v>0.35483870967741937</v>
       </c>
@@ -2456,11 +2638,11 @@
       <c r="Y17">
         <v>58</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="1">
         <f>Y17/X17</f>
         <v>0.62365591397849462</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" s="1">
         <f>(X17-Y17)/X17</f>
         <v>0.37634408602150538</v>
       </c>
@@ -2476,11 +2658,11 @@
       <c r="AJ17">
         <v>76</v>
       </c>
-      <c r="AL17">
+      <c r="AL17" s="1">
         <f>AJ17/AI17</f>
         <v>0.81720430107526887</v>
       </c>
-      <c r="AM17">
+      <c r="AM17" s="1">
         <f>(AI17-AJ17)/AI17</f>
         <v>0.18279569892473119</v>
       </c>
@@ -2496,11 +2678,11 @@
       <c r="AU17">
         <v>79</v>
       </c>
-      <c r="AW17">
+      <c r="AW17" s="1">
         <f>AU17/AT17</f>
         <v>0.84946236559139787</v>
       </c>
-      <c r="AX17">
+      <c r="AX17" s="1">
         <f>(AT17-AU17)/AT17</f>
         <v>0.15053763440860216</v>
       </c>
@@ -2516,11 +2698,11 @@
       <c r="BF17">
         <v>67</v>
       </c>
-      <c r="BH17">
+      <c r="BH17" s="1">
         <f>BF17/BE17</f>
         <v>0.72043010752688175</v>
       </c>
-      <c r="BI17">
+      <c r="BI17" s="1">
         <f>(BE17-BF17)/BE17</f>
         <v>0.27956989247311825</v>
       </c>
@@ -2529,30 +2711,42 @@
       </c>
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="H18" s="1">
         <f>H14/(H14+H8)</f>
         <v>0.98522167487684731</v>
       </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
       <c r="S18" s="1">
         <f>S14/(S14+S8)</f>
         <v>0.98891625615763545</v>
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
       <c r="AD18" s="1">
         <f>AD14/(AD14+AD8)</f>
         <v>0.98891625615763545</v>
       </c>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
       <c r="AO18" s="1">
         <f>AO14/(AO14+AO8)</f>
         <v>0.93226600985221675</v>
       </c>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
       <c r="AZ18" s="1">
         <f>AZ14/(AZ14+AZ8)</f>
         <v>0.94211822660098521</v>
       </c>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
       <c r="BK18" s="1">
         <f>BK14/(BK14+BK8)</f>
         <v>0.97044334975369462</v>
@@ -2568,11 +2762,11 @@
       <c r="C19">
         <v>98</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <f>C19/B19</f>
         <v>0.86725663716814161</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <f>(B19-C19)/B19</f>
         <v>0.13274336283185842</v>
       </c>
@@ -2585,11 +2779,11 @@
       <c r="N19">
         <v>93</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="1">
         <f>N19/M19</f>
         <v>0.82300884955752207</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="1">
         <f>(M19-N19)/M19</f>
         <v>0.17699115044247787</v>
       </c>
@@ -2602,11 +2796,11 @@
       <c r="Y19">
         <v>95</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="1">
         <f>Y19/X19</f>
         <v>0.84070796460176989</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="1">
         <f>(X19-Y19)/X19</f>
         <v>0.15929203539823009</v>
       </c>
@@ -2619,11 +2813,11 @@
       <c r="AJ19">
         <v>106</v>
       </c>
-      <c r="AL19">
+      <c r="AL19" s="1">
         <f>AJ19/AI19</f>
         <v>0.93805309734513276</v>
       </c>
-      <c r="AM19">
+      <c r="AM19" s="1">
         <f>(AI19-AJ19)/AI19</f>
         <v>6.1946902654867256E-2</v>
       </c>
@@ -2636,11 +2830,11 @@
       <c r="AU19">
         <v>105</v>
       </c>
-      <c r="AW19">
+      <c r="AW19" s="1">
         <f>AU19/AT19</f>
         <v>0.92920353982300885</v>
       </c>
-      <c r="AX19">
+      <c r="AX19" s="1">
         <f>(AT19-AU19)/AT19</f>
         <v>7.0796460176991149E-2</v>
       </c>
@@ -2653,14 +2847,28 @@
       <c r="BF19">
         <v>97</v>
       </c>
-      <c r="BH19">
+      <c r="BH19" s="1">
         <f>BF19/BE19</f>
         <v>0.8584070796460177</v>
       </c>
-      <c r="BI19">
+      <c r="BI19" s="1">
         <f>(BE19-BF19)/BE19</f>
         <v>0.1415929203539823</v>
       </c>
+    </row>
+    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2672,11 +2880,11 @@
       <c r="C21">
         <v>12</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <f>(B21-C21)/B21</f>
         <v>0.98522167487684731</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <f>C21/B21</f>
         <v>1.4778325123152709E-2</v>
       </c>
@@ -2689,11 +2897,11 @@
       <c r="N21">
         <v>9</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="1">
         <f>(M21-N21)/M21</f>
         <v>0.98891625615763545</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="1">
         <f>N21/M21</f>
         <v>1.1083743842364532E-2</v>
       </c>
@@ -2706,11 +2914,11 @@
       <c r="Y21">
         <v>9</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="1">
         <f>(X21-Y21)/X21</f>
         <v>0.98891625615763545</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="1">
         <f>Y21/X21</f>
         <v>1.1083743842364532E-2</v>
       </c>
@@ -2723,11 +2931,11 @@
       <c r="AJ21">
         <v>55</v>
       </c>
-      <c r="AL21">
+      <c r="AL21" s="1">
         <f>(AI21-AJ21)/AI21</f>
         <v>0.93226600985221675</v>
       </c>
-      <c r="AM21">
+      <c r="AM21" s="1">
         <f>AJ21/AI21</f>
         <v>6.7733990147783252E-2</v>
       </c>
@@ -2740,11 +2948,11 @@
       <c r="AU21">
         <v>47</v>
       </c>
-      <c r="AW21">
+      <c r="AW21" s="1">
         <f>(AT21-AU21)/AT21</f>
         <v>0.94211822660098521</v>
       </c>
-      <c r="AX21">
+      <c r="AX21" s="1">
         <f>AU21/AT21</f>
         <v>5.7881773399014777E-2</v>
       </c>
@@ -2757,14 +2965,18 @@
       <c r="BF21">
         <v>24</v>
       </c>
-      <c r="BH21">
+      <c r="BH21" s="1">
         <f>(BE21-BF21)/BE21</f>
         <v>0.97044334975369462</v>
       </c>
-      <c r="BI21">
+      <c r="BI21" s="1">
         <f>BF21/BE21</f>
         <v>2.9556650246305417E-2</v>
       </c>
+    </row>
+    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2775,8 +2987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2848,11 +3060,11 @@
       <c r="G7">
         <v>170</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <f>G7/F7</f>
         <v>0.8133971291866029</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <f>(F7-G7)/F7</f>
         <v>0.18660287081339713</v>
       </c>
@@ -2861,6 +3073,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
       <c r="L8">
         <f>G21</f>
         <v>75</v>
@@ -2876,11 +3090,11 @@
       <c r="G9">
         <v>359</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <f>G9/F9</f>
         <v>0.92525773195876293</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <f>(F9-G9)/F9</f>
         <v>7.4742268041237112E-2</v>
       </c>
@@ -2889,6 +3103,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
       <c r="L10">
         <f t="shared" ref="L10" si="0">SUM(G7:G19)</f>
         <v>917</v>
@@ -2904,11 +3120,11 @@
       <c r="G11">
         <v>44</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <f>G11/F11</f>
         <v>1</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <f>(F11-G11)/F11</f>
         <v>0</v>
       </c>
@@ -2917,6 +3133,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="L12">
         <f>SUM(F7:F19)-SUM(G7:G19)</f>
         <v>88</v>
@@ -2932,11 +3150,11 @@
       <c r="G13">
         <v>103</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <f>G13/F13</f>
         <v>0.99038461538461542</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <f>(F13-G13)/F13</f>
         <v>9.6153846153846159E-3</v>
       </c>
@@ -2945,6 +3163,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="L14">
         <f>F21-G21</f>
         <v>737</v>
@@ -2960,11 +3180,11 @@
       <c r="G15">
         <v>53</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <f>G15/F15</f>
         <v>0.98148148148148151</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <f>(F15-G15)/F15</f>
         <v>1.8518518518518517E-2</v>
       </c>
@@ -2973,6 +3193,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="L16" s="1">
         <f t="shared" ref="L16" si="1">L10/(L10+L12)</f>
         <v>0.91243781094527365</v>
@@ -2988,11 +3210,11 @@
       <c r="G17">
         <v>80</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <f>G17/F17</f>
         <v>0.86021505376344087</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <f>(F17-G17)/F17</f>
         <v>0.13978494623655913</v>
       </c>
@@ -3001,6 +3223,8 @@
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="L18" s="1">
         <f>L14/(L14+L8)</f>
         <v>0.9076354679802956</v>
@@ -3016,14 +3240,18 @@
       <c r="G19">
         <v>108</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <f>G19/F19</f>
         <v>0.95575221238938057</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <f>(F19-G19)/F19</f>
         <v>4.4247787610619468E-2</v>
       </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
@@ -3035,13 +3263,314 @@
       <c r="G21">
         <v>75</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <f>(F21-G21)/F21</f>
         <v>0.9076354679802956</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <f>G21/F21</f>
         <v>9.2364532019704432E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>120</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f>MEDIAN(I7:I19)</f>
+        <v>0.88495575221238942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <f>SUM(G7:G19)/SUM(F7:F19)</f>
+        <v>0.81393034825870647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <f>SUM(G7:G19,F21-G21)/SUM(F7:F21)</f>
+        <v>0.88442487616951015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>209</v>
+      </c>
+      <c r="G7">
+        <v>129</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7/F7</f>
+        <v>0.61722488038277512</v>
+      </c>
+      <c r="J7" s="1">
+        <f>(F7-G7)/F7</f>
+        <v>0.38277511961722488</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="L8">
+        <f>G21</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>388</v>
+      </c>
+      <c r="G9">
+        <v>323</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9/F9</f>
+        <v>0.83247422680412375</v>
+      </c>
+      <c r="J9" s="1">
+        <f>(F9-G9)/F9</f>
+        <v>0.16752577319587628</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="L10">
+        <f t="shared" ref="L10" si="0">SUM(G7:G19)</f>
+        <v>818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>44</v>
+      </c>
+      <c r="G11">
+        <v>44</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11/F11</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <f>(F11-G11)/F11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="L12">
+        <f>SUM(F7:F19)-SUM(G7:G19)</f>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>104</v>
+      </c>
+      <c r="G13">
+        <v>96</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13/F13</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="J13" s="1">
+        <f>(F13-G13)/F13</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="L14">
+        <f>F21-G21</f>
+        <v>789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>54</v>
+      </c>
+      <c r="G15">
+        <v>53</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15/F15</f>
+        <v>0.98148148148148151</v>
+      </c>
+      <c r="J15" s="1">
+        <f>(F15-G15)/F15</f>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="L16" s="1">
+        <f t="shared" ref="L16" si="1">L10/(L10+L12)</f>
+        <v>0.81393034825870647</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>93</v>
+      </c>
+      <c r="G17">
+        <v>73</v>
+      </c>
+      <c r="I17" s="1">
+        <f>G17/F17</f>
+        <v>0.78494623655913975</v>
+      </c>
+      <c r="J17" s="1">
+        <f>(F17-G17)/F17</f>
+        <v>0.21505376344086022</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="L18" s="1">
+        <f>L14/(L14+L8)</f>
+        <v>0.97167487684729059</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>113</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="I19" s="1">
+        <f>G19/F19</f>
+        <v>0.88495575221238942</v>
+      </c>
+      <c r="J19" s="1">
+        <f>(F19-G19)/F19</f>
+        <v>0.11504424778761062</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>812</v>
+      </c>
+      <c r="G21">
+        <v>23</v>
+      </c>
+      <c r="I21" s="1">
+        <f>(F21-G21)/F21</f>
+        <v>0.97167487684729059</v>
+      </c>
+      <c r="J21" s="1">
+        <f>G21/F21</f>
+        <v>2.832512315270936E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/CancerSEEK/Test Effectiveness.xlsx
+++ b/Data/CancerSEEK/Test Effectiveness.xlsx
@@ -2,23 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrewil000\OneDrive - Oak Ridge Schools\Documents\Thesis\Data\CancerSEEK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Theirs" sheetId="1" r:id="rId1"/>
-    <sheet name="Ours" sheetId="2" r:id="rId2"/>
-    <sheet name="Less+" sheetId="3" r:id="rId3"/>
-    <sheet name="10x" sheetId="5" r:id="rId4"/>
-    <sheet name="Omega" sheetId="6" r:id="rId5"/>
-    <sheet name="Benchmark" sheetId="7" r:id="rId6"/>
-    <sheet name="New" sheetId="8" r:id="rId7"/>
+    <sheet name=".98" sheetId="9" r:id="rId2"/>
+    <sheet name="Ours" sheetId="2" r:id="rId3"/>
+    <sheet name="Less+" sheetId="3" r:id="rId4"/>
+    <sheet name="10x" sheetId="5" r:id="rId5"/>
+    <sheet name="Omega" sheetId="6" r:id="rId6"/>
+    <sheet name="Benchmark" sheetId="7" r:id="rId7"/>
+    <sheet name="New" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="R11000000C8">#REF!</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="28">
   <si>
     <t>Colorectum</t>
   </si>
@@ -100,6 +101,24 @@
   <si>
     <t>10:1</t>
   </si>
+  <si>
+    <t>Layer 1</t>
+  </si>
+  <si>
+    <t>Layer 2</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>Nuerons</t>
+  </si>
+  <si>
+    <t>Regularizer</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
 </sst>
 </file>
 
@@ -147,10 +166,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,9 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -715,6 +735,320 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f>MEDIAN(I7:I19)</f>
+        <v>0.82692307692307687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <f>SUM(G7:G19)/SUM(F7:F19)</f>
+        <v>0.74328358208955225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>0.98</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>120</v>
+      </c>
+      <c r="L6" s="1">
+        <f>SUM(G7:G19,F21-G21)/SUM(F7:F21)</f>
+        <v>0.85305448541552009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>209</v>
+      </c>
+      <c r="G7">
+        <v>115</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7/F7</f>
+        <v>0.55023923444976075</v>
+      </c>
+      <c r="J7" s="1">
+        <f>(F7-G7)/F7</f>
+        <v>0.44976076555023925</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="L8">
+        <f>G21</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>388</v>
+      </c>
+      <c r="G9">
+        <v>285</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9/F9</f>
+        <v>0.73453608247422686</v>
+      </c>
+      <c r="J9" s="1">
+        <f>(F9-G9)/F9</f>
+        <v>0.2654639175257732</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="L10">
+        <f t="shared" ref="L10" si="0">SUM(G7:G19)</f>
+        <v>747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>44</v>
+      </c>
+      <c r="G11">
+        <v>44</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11/F11</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <f>(F11-G11)/F11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="L12">
+        <f>SUM(F7:F19)-SUM(G7:G19)</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>104</v>
+      </c>
+      <c r="G13">
+        <v>86</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13/F13</f>
+        <v>0.82692307692307687</v>
+      </c>
+      <c r="J13" s="1">
+        <f>(F13-G13)/F13</f>
+        <v>0.17307692307692307</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="L14">
+        <f>F21-G21</f>
+        <v>803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>54</v>
+      </c>
+      <c r="G15">
+        <v>53</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15/F15</f>
+        <v>0.98148148148148151</v>
+      </c>
+      <c r="J15" s="1">
+        <f>(F15-G15)/F15</f>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="L16" s="1">
+        <f t="shared" ref="L16" si="1">L10/(L10+L12)</f>
+        <v>0.74328358208955225</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>93</v>
+      </c>
+      <c r="G17">
+        <v>68</v>
+      </c>
+      <c r="I17" s="1">
+        <f>G17/F17</f>
+        <v>0.73118279569892475</v>
+      </c>
+      <c r="J17" s="1">
+        <f>(F17-G17)/F17</f>
+        <v>0.26881720430107525</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="L18" s="1">
+        <f>L14/(L14+L8)</f>
+        <v>0.98891625615763545</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>113</v>
+      </c>
+      <c r="G19">
+        <v>96</v>
+      </c>
+      <c r="I19" s="1">
+        <f>G19/F19</f>
+        <v>0.84955752212389379</v>
+      </c>
+      <c r="J19" s="1">
+        <f>(F19-G19)/F19</f>
+        <v>0.15044247787610621</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>812</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="I21" s="1">
+        <f>(F21-G21)/F21</f>
+        <v>0.98891625615763545</v>
+      </c>
+      <c r="J21" s="1">
+        <f>G21/F21</f>
+        <v>1.1083743842364532E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -994,8 +1328,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1011,11 +1346,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
       <c r="H1" t="s">
         <v>8</v>
       </c>
@@ -1036,9 +1371,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="H2" s="1">
         <f>MEDIAN(E7:E19)</f>
         <v>0.92035398230088494</v>
@@ -1065,9 +1400,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="K3" t="s">
         <v>13</v>
       </c>
@@ -1289,8 +1624,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1570,8 +1906,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BQ22"/>
   <sheetViews>
     <sheetView topLeftCell="BA1" workbookViewId="0">
@@ -2983,8 +3320,305 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>120</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f>MEDIAN(I7:I19)</f>
+        <v>0.95575221238938057</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <f>SUM(G7:G19)/SUM(F7:F19)</f>
+        <v>0.91243781094527365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <f>SUM(G7:G19,F21-G21)/SUM(F7:F21)</f>
+        <v>0.91029168959823881</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>209</v>
+      </c>
+      <c r="G7">
+        <v>170</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7/F7</f>
+        <v>0.8133971291866029</v>
+      </c>
+      <c r="J7" s="1">
+        <f>(F7-G7)/F7</f>
+        <v>0.18660287081339713</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="L8">
+        <f>G21</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>388</v>
+      </c>
+      <c r="G9">
+        <v>359</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9/F9</f>
+        <v>0.92525773195876293</v>
+      </c>
+      <c r="J9" s="1">
+        <f>(F9-G9)/F9</f>
+        <v>7.4742268041237112E-2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="L10">
+        <f t="shared" ref="L10" si="0">SUM(G7:G19)</f>
+        <v>917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>44</v>
+      </c>
+      <c r="G11">
+        <v>44</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11/F11</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <f>(F11-G11)/F11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="L12">
+        <f>SUM(F7:F19)-SUM(G7:G19)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>104</v>
+      </c>
+      <c r="G13">
+        <v>103</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13/F13</f>
+        <v>0.99038461538461542</v>
+      </c>
+      <c r="J13" s="1">
+        <f>(F13-G13)/F13</f>
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="L14">
+        <f>F21-G21</f>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>54</v>
+      </c>
+      <c r="G15">
+        <v>53</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15/F15</f>
+        <v>0.98148148148148151</v>
+      </c>
+      <c r="J15" s="1">
+        <f>(F15-G15)/F15</f>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="L16" s="1">
+        <f t="shared" ref="L16" si="1">L10/(L10+L12)</f>
+        <v>0.91243781094527365</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>93</v>
+      </c>
+      <c r="G17">
+        <v>80</v>
+      </c>
+      <c r="I17" s="1">
+        <f>G17/F17</f>
+        <v>0.86021505376344087</v>
+      </c>
+      <c r="J17" s="1">
+        <f>(F17-G17)/F17</f>
+        <v>0.13978494623655913</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="L18" s="1">
+        <f>L14/(L14+L8)</f>
+        <v>0.9076354679802956</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>113</v>
+      </c>
+      <c r="G19">
+        <v>108</v>
+      </c>
+      <c r="I19" s="1">
+        <f>G19/F19</f>
+        <v>0.95575221238938057</v>
+      </c>
+      <c r="J19" s="1">
+        <f>(F19-G19)/F19</f>
+        <v>4.4247787610619468E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>812</v>
+      </c>
+      <c r="G21">
+        <v>75</v>
+      </c>
+      <c r="I21" s="1">
+        <f>(F21-G21)/F21</f>
+        <v>0.9076354679802956</v>
+      </c>
+      <c r="J21" s="1">
+        <f>G21/F21</f>
+        <v>9.2364532019704432E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3019,301 +3653,6 @@
       </c>
       <c r="L2" s="1">
         <f>MEDIAN(I7:I19)</f>
-        <v>0.95575221238938057</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L4" s="1">
-        <f>SUM(G7:G19)/SUM(F7:F19)</f>
-        <v>0.91243781094527365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L6" s="1">
-        <f>SUM(G7:G19,F21-G21)/SUM(F7:F21)</f>
-        <v>0.91029168959823881</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>209</v>
-      </c>
-      <c r="G7">
-        <v>170</v>
-      </c>
-      <c r="I7" s="1">
-        <f>G7/F7</f>
-        <v>0.8133971291866029</v>
-      </c>
-      <c r="J7" s="1">
-        <f>(F7-G7)/F7</f>
-        <v>0.18660287081339713</v>
-      </c>
-      <c r="L7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="L8">
-        <f>G21</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>388</v>
-      </c>
-      <c r="G9">
-        <v>359</v>
-      </c>
-      <c r="I9" s="1">
-        <f>G9/F9</f>
-        <v>0.92525773195876293</v>
-      </c>
-      <c r="J9" s="1">
-        <f>(F9-G9)/F9</f>
-        <v>7.4742268041237112E-2</v>
-      </c>
-      <c r="L9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="L10">
-        <f t="shared" ref="L10" si="0">SUM(G7:G19)</f>
-        <v>917</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>44</v>
-      </c>
-      <c r="G11">
-        <v>44</v>
-      </c>
-      <c r="I11" s="1">
-        <f>G11/F11</f>
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <f>(F11-G11)/F11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="L12">
-        <f>SUM(F7:F19)-SUM(G7:G19)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>104</v>
-      </c>
-      <c r="G13">
-        <v>103</v>
-      </c>
-      <c r="I13" s="1">
-        <f>G13/F13</f>
-        <v>0.99038461538461542</v>
-      </c>
-      <c r="J13" s="1">
-        <f>(F13-G13)/F13</f>
-        <v>9.6153846153846159E-3</v>
-      </c>
-      <c r="L13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="L14">
-        <f>F21-G21</f>
-        <v>737</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>54</v>
-      </c>
-      <c r="G15">
-        <v>53</v>
-      </c>
-      <c r="I15" s="1">
-        <f>G15/F15</f>
-        <v>0.98148148148148151</v>
-      </c>
-      <c r="J15" s="1">
-        <f>(F15-G15)/F15</f>
-        <v>1.8518518518518517E-2</v>
-      </c>
-      <c r="L15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="L16" s="1">
-        <f t="shared" ref="L16" si="1">L10/(L10+L12)</f>
-        <v>0.91243781094527365</v>
-      </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>93</v>
-      </c>
-      <c r="G17">
-        <v>80</v>
-      </c>
-      <c r="I17" s="1">
-        <f>G17/F17</f>
-        <v>0.86021505376344087</v>
-      </c>
-      <c r="J17" s="1">
-        <f>(F17-G17)/F17</f>
-        <v>0.13978494623655913</v>
-      </c>
-      <c r="L17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="L18" s="1">
-        <f>L14/(L14+L8)</f>
-        <v>0.9076354679802956</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19">
-        <v>113</v>
-      </c>
-      <c r="G19">
-        <v>108</v>
-      </c>
-      <c r="I19" s="1">
-        <f>G19/F19</f>
-        <v>0.95575221238938057</v>
-      </c>
-      <c r="J19" s="1">
-        <f>(F19-G19)/F19</f>
-        <v>4.4247787610619468E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21">
-        <v>812</v>
-      </c>
-      <c r="G21">
-        <v>75</v>
-      </c>
-      <c r="I21" s="1">
-        <f>(F21-G21)/F21</f>
-        <v>0.9076354679802956</v>
-      </c>
-      <c r="J21" s="1">
-        <f>G21/F21</f>
-        <v>9.2364532019704432E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>30</v>
-      </c>
-      <c r="B1">
-        <v>120</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>120</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <f>MEDIAN(I7:I19)</f>
         <v>0.88495575221238942</v>
       </c>
     </row>
@@ -3321,7 +3660,7 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L3" t="s">

--- a/Data/CancerSEEK/Test Effectiveness.xlsx
+++ b/Data/CancerSEEK/Test Effectiveness.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Theirs" sheetId="1" r:id="rId1"/>
     <sheet name=".98" sheetId="9" r:id="rId2"/>
-    <sheet name="Ours" sheetId="2" r:id="rId3"/>
-    <sheet name="Less+" sheetId="3" r:id="rId4"/>
-    <sheet name="10x" sheetId="5" r:id="rId5"/>
-    <sheet name="Omega" sheetId="6" r:id="rId6"/>
-    <sheet name="Benchmark" sheetId="7" r:id="rId7"/>
-    <sheet name="New" sheetId="8" r:id="rId8"/>
+    <sheet name="Individual" sheetId="10" r:id="rId3"/>
+    <sheet name="Ours" sheetId="2" r:id="rId4"/>
+    <sheet name="Less+" sheetId="3" r:id="rId5"/>
+    <sheet name="10x" sheetId="5" r:id="rId6"/>
+    <sheet name="Omega" sheetId="6" r:id="rId7"/>
+    <sheet name="Benchmark" sheetId="7" r:id="rId8"/>
+    <sheet name="New" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="R11000000C8">#REF!</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="31">
   <si>
     <t>Colorectum</t>
   </si>
@@ -118,6 +119,15 @@
   </si>
   <si>
     <t>Threshold</t>
+  </si>
+  <si>
+    <t>Medain of Cancer</t>
+  </si>
+  <si>
+    <t>Mean of All</t>
+  </si>
+  <si>
+    <t>Fasle Positives</t>
   </si>
 </sst>
 </file>
@@ -738,8 +748,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +826,7 @@
       </c>
       <c r="L6" s="1">
         <f>SUM(G7:G19,F21-G21)/SUM(F7:F21)</f>
-        <v>0.85305448541552009</v>
+        <v>0.85360484314804619</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -846,7 +856,7 @@
       <c r="J8" s="1"/>
       <c r="L8">
         <f>G21</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -936,7 +946,7 @@
       <c r="J14" s="1"/>
       <c r="L14">
         <f>F21-G21</f>
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -996,7 +1006,7 @@
       <c r="J18" s="1"/>
       <c r="L18" s="1">
         <f>L14/(L14+L8)</f>
-        <v>0.98891625615763545</v>
+        <v>0.99014778325123154</v>
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.25">
@@ -1030,15 +1040,15 @@
         <v>812</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I21" s="1">
         <f>(F21-G21)/F21</f>
-        <v>0.98891625615763545</v>
+        <v>0.99014778325123154</v>
       </c>
       <c r="J21" s="1">
         <f>G21/F21</f>
-        <v>1.1083743842364532E-2</v>
+        <v>9.852216748768473E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1047,6 +1057,292 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>120</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>209</v>
+      </c>
+      <c r="I3">
+        <v>110</v>
+      </c>
+      <c r="K3" s="1">
+        <f>I3/H3</f>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="L3" s="1">
+        <f>(H3-I3)/H3</f>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="N4" s="1">
+        <f>MEDIAN(K3:K15)</f>
+        <v>0.82300884955752207</v>
+      </c>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>388</v>
+      </c>
+      <c r="I5">
+        <v>305</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5/H5</f>
+        <v>0.78608247422680411</v>
+      </c>
+      <c r="L5" s="1">
+        <f>(H5-I5)/H5</f>
+        <v>0.21391752577319587</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="N6" s="1">
+        <f>SUM(I3:I15,H17,-I17)/SUM(H3:H17)</f>
+        <v>0.85635663181067689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>44</v>
+      </c>
+      <c r="I7">
+        <v>44</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7/H7</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <f>(H7-I7)/H7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="N8">
+        <f>I17</f>
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <f>SUM(H3:H15)-SUM(I3:I15)</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>104</v>
+      </c>
+      <c r="I9">
+        <v>86</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9/H9</f>
+        <v>0.82692307692307687</v>
+      </c>
+      <c r="L9" s="1">
+        <f>(H9-I9)/H9</f>
+        <v>0.17307692307692307</v>
+      </c>
+      <c r="N9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="N10">
+        <f>SUM(I3:I15)</f>
+        <v>763</v>
+      </c>
+      <c r="O10">
+        <f>H17-I17</f>
+        <v>793</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>54</v>
+      </c>
+      <c r="I11">
+        <v>53</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11/H11</f>
+        <v>0.98148148148148151</v>
+      </c>
+      <c r="L11" s="1">
+        <f>(H11-I11)/H11</f>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="N12" s="1">
+        <f>SUM(I3:I15)/SUM(H3:H15)</f>
+        <v>0.75920398009950252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>93</v>
+      </c>
+      <c r="I13">
+        <v>72</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13/H13</f>
+        <v>0.77419354838709675</v>
+      </c>
+      <c r="L13" s="1">
+        <f>(H13-I13)/H13</f>
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="N14" s="1">
+        <f>(H17-I17)/H17</f>
+        <v>0.97660098522167482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>113</v>
+      </c>
+      <c r="I15">
+        <v>93</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15/H15</f>
+        <v>0.82300884955752207</v>
+      </c>
+      <c r="L15" s="1">
+        <f>(H15-I15)/H15</f>
+        <v>0.17699115044247787</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>812</v>
+      </c>
+      <c r="I17">
+        <v>19</v>
+      </c>
+      <c r="K17" s="1">
+        <f>(H17-I17)/H17</f>
+        <v>0.97660098522167482</v>
+      </c>
+      <c r="L17" s="1">
+        <f>I17/H17</f>
+        <v>2.3399014778325122E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N21"/>
@@ -1328,7 +1624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N21"/>
@@ -1624,7 +1920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N21"/>
@@ -1906,7 +2202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BQ22"/>
@@ -3320,7 +3616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L21"/>
@@ -3616,13 +3912,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:J21"/>
+      <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/CancerSEEK/Test Effectiveness.xlsx
+++ b/Data/CancerSEEK/Test Effectiveness.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrewil000\OneDrive - Oak Ridge Schools\Documents\Thesis\Data\CancerSEEK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven7214/Desktop/Thesis/Data/CancerSEEK/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82F8A5CE-9422-BB48-8FD0-9FC716C91648}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="15860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Theirs" sheetId="1" r:id="rId1"/>
@@ -133,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,9 +184,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 13" xfId="1"/>
-    <cellStyle name="Normal 10 4" xfId="2"/>
-    <cellStyle name="Normal 10 4 3" xfId="3"/>
+    <cellStyle name="Normal 10 13" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 10 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 10 4 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,7 +463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
@@ -470,15 +471,15 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
         <v>8</v>
       </c>
@@ -498,7 +499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H2" s="1">
         <f>MEDIAN(E7:E19)</f>
         <v>0.70796460176991149</v>
@@ -524,7 +525,7 @@
         <v>0.62288557213930351</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>13</v>
       </c>
@@ -535,7 +536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K4">
         <f>SUM(C7:C19)</f>
         <v>626</v>
@@ -549,7 +550,7 @@
         <v>0.99137931034482762</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>17</v>
       </c>
@@ -557,7 +558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -576,12 +577,12 @@
         <v>0.66507177033492826</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -600,11 +601,11 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -623,11 +624,11 @@
         <v>2.2727272727272728E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -646,11 +647,11 @@
         <v>0.41346153846153844</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -669,11 +670,11 @@
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -692,11 +693,11 @@
         <v>0.27956989247311825</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -715,11 +716,11 @@
         <v>0.29203539823008851</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -744,17 +745,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -765,7 +769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -780,7 +784,7 @@
         <v>0.82692307692307687</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -788,19 +792,19 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L4" s="1">
         <f>SUM(G7:G19)/SUM(F7:F19)</f>
         <v>0.74328358208955225</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -817,7 +821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -829,7 +833,7 @@
         <v>0.85360484314804619</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>2</v>
       </c>
@@ -851,7 +855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="L8">
@@ -859,7 +863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>0</v>
       </c>
@@ -881,7 +885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="L10">
@@ -889,7 +893,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>5</v>
       </c>
@@ -911,7 +915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="L12">
@@ -919,7 +923,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>1</v>
       </c>
@@ -941,7 +945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="L14">
@@ -949,7 +953,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>4</v>
       </c>
@@ -971,7 +975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="L16" s="1">
@@ -979,7 +983,7 @@
         <v>0.74328358208955225</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>3</v>
       </c>
@@ -1001,7 +1005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="L18" s="1">
@@ -1009,7 +1013,7 @@
         <v>0.99014778325123154</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>7</v>
       </c>
@@ -1028,11 +1032,11 @@
         <v>0.15044247787610621</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.2">
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
         <v>6</v>
       </c>
@@ -1057,16 +1061,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="141" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>30</v>
       </c>
@@ -1083,7 +1091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -1094,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1122,7 +1130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="N4" s="1">
@@ -1131,7 +1139,7 @@
       </c>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="N6" s="1">
@@ -1161,7 +1169,7 @@
         <v>0.85635663181067689</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
         <v>5</v>
       </c>
@@ -1186,7 +1194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="N8">
@@ -1198,7 +1206,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
         <v>1</v>
       </c>
@@ -1223,7 +1231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="N10">
@@ -1235,7 +1243,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
         <v>4</v>
       </c>
@@ -1257,7 +1265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="N12" s="1">
@@ -1265,7 +1273,7 @@
         <v>0.75920398009950252</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G13" t="s">
         <v>3</v>
       </c>
@@ -1287,7 +1295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="N14" s="1">
@@ -1295,7 +1303,7 @@
         <v>0.97660098522167482</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G15" t="s">
         <v>7</v>
       </c>
@@ -1314,11 +1322,11 @@
         <v>0.17699115044247787</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
         <v>6</v>
       </c>
@@ -1343,7 +1351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
@@ -1351,15 +1359,15 @@
       <selection activeCell="E7" sqref="E7:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H2" s="1">
         <f>MEDIAN(E7:E19)</f>
         <v>0.875</v>
@@ -1405,7 +1413,7 @@
         <v>0.90476190476190477</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>13</v>
       </c>
@@ -1416,7 +1424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K4">
         <f>SUM(C7:C19)</f>
         <v>95</v>
@@ -1430,7 +1438,7 @@
         <v>0.90666666666666662</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>17</v>
       </c>
@@ -1438,7 +1446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1457,11 +1465,11 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1480,11 +1488,11 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1503,11 +1511,11 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1526,11 +1534,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1549,11 +1557,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1572,11 +1580,11 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1595,11 +1603,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1625,7 +1633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
@@ -1633,15 +1641,15 @@
       <selection activeCell="E7" sqref="E7:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -1666,7 +1674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1695,7 +1703,7 @@
         <v>0.85870646766169156</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1709,7 +1717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K4">
         <f>SUM(C7:C19)</f>
         <v>863</v>
@@ -1723,7 +1731,7 @@
         <v>0.99384236453201968</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>17</v>
       </c>
@@ -1731,7 +1739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1750,11 +1758,11 @@
         <v>0.28708133971291866</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1773,11 +1781,11 @@
         <v>0.13144329896907217</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1796,11 +1804,11 @@
         <v>2.2727272727272728E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1819,11 +1827,11 @@
         <v>6.7307692307692304E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1842,11 +1850,11 @@
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1865,11 +1873,11 @@
         <v>0.13978494623655913</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1888,11 +1896,11 @@
         <v>7.9646017699115043E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1921,7 +1929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
@@ -1929,15 +1937,15 @@
       <selection activeCell="E7" sqref="E7:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
         <v>8</v>
       </c>
@@ -1957,7 +1965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H2" s="1">
         <f>MEDIAN(E7:E19)</f>
         <v>0.92920353982300885</v>
@@ -1983,7 +1991,7 @@
         <v>0.88059701492537312</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>13</v>
       </c>
@@ -1994,7 +2002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K4">
         <f>SUM(C7:C19)</f>
         <v>885</v>
@@ -2008,7 +2016,7 @@
         <v>0.91871921182266014</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>17</v>
       </c>
@@ -2016,7 +2024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2036,11 +2044,11 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2059,11 +2067,11 @@
         <v>0.12886597938144329</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2082,11 +2090,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2105,11 +2113,11 @@
         <v>5.7692307692307696E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2128,11 +2136,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2151,11 +2159,11 @@
         <v>0.13978494623655913</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2174,11 +2182,11 @@
         <v>7.0796460176991149E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2203,7 +2211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BQ22"/>
   <sheetViews>
@@ -2211,20 +2219,20 @@
       <selection activeCell="BI22" sqref="BI22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="15" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
         <v>8</v>
       </c>
@@ -2244,7 +2252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
       <c r="H2" s="1">
         <f>MEDIAN(E7:E19)</f>
         <v>0.86725663716814161</v>
@@ -2274,7 +2282,7 @@
         <v>0.8584070796460177</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
         <v>10</v>
       </c>
@@ -2294,7 +2302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="H4" s="1">
         <f>SUM(C7:C19)/SUM(B7:B19)</f>
         <v>0.78606965174129351</v>
@@ -2324,7 +2332,7 @@
         <v>0.78308457711442792</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>17</v>
       </c>
@@ -2380,7 +2388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="H6" s="1">
         <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
         <v>0.87506879471656573</v>
@@ -2410,7 +2418,7 @@
         <v>0.86681342872867362</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2533,7 +2541,7 @@
       </c>
       <c r="BQ7" s="1"/>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="H8">
@@ -2571,7 +2579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2693,7 +2701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="H10">
@@ -2731,7 +2739,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2853,7 +2861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="H12">
@@ -2891,7 +2899,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -3013,7 +3021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="H14">
@@ -3051,7 +3059,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3173,7 +3181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="H16" s="1">
@@ -3221,7 +3229,7 @@
         <v>0.78308457711442792</v>
       </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -3343,7 +3351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="H18" s="1">
@@ -3385,7 +3393,7 @@
         <v>0.97044334975369462</v>
       </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3489,7 +3497,7 @@
         <v>0.1415929203539823</v>
       </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="P20" s="1"/>
@@ -3503,7 +3511,7 @@
       <c r="BH20" s="1"/>
       <c r="BI20" s="1"/>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -3607,7 +3615,7 @@
         <v>2.9556650246305417E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
       <c r="BH22" s="1"/>
       <c r="BI22" s="1"/>
     </row>
@@ -3617,7 +3625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
@@ -3625,9 +3633,9 @@
       <selection sqref="A1:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>30</v>
       </c>
@@ -3641,7 +3649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -3656,18 +3664,18 @@
         <v>0.95575221238938057</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L4" s="1">
         <f>SUM(G7:G19)/SUM(F7:F19)</f>
         <v>0.91243781094527365</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>17</v>
       </c>
@@ -3678,13 +3686,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L6" s="1">
         <f>SUM(G7:G19,F21-G21)/SUM(F7:F21)</f>
         <v>0.91029168959823881</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>2</v>
       </c>
@@ -3706,7 +3714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="L8">
@@ -3714,7 +3722,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>0</v>
       </c>
@@ -3736,7 +3744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="L10">
@@ -3744,7 +3752,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>5</v>
       </c>
@@ -3766,7 +3774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="L12">
@@ -3774,7 +3782,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>1</v>
       </c>
@@ -3796,7 +3804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="L14">
@@ -3804,7 +3812,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>4</v>
       </c>
@@ -3826,7 +3834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="L16" s="1">
@@ -3834,7 +3842,7 @@
         <v>0.91243781094527365</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>3</v>
       </c>
@@ -3856,7 +3864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="L18" s="1">
@@ -3864,7 +3872,7 @@
         <v>0.9076354679802956</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>7</v>
       </c>
@@ -3883,11 +3891,11 @@
         <v>4.4247787610619468E-2</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.2">
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
         <v>6</v>
       </c>
@@ -3913,7 +3921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
@@ -3921,9 +3929,9 @@
       <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>30</v>
       </c>
@@ -3937,7 +3945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -3952,7 +3960,7 @@
         <v>0.88495575221238942</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3963,13 +3971,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L4" s="1">
         <f>SUM(G7:G19)/SUM(F7:F19)</f>
         <v>0.81393034825870647</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>17</v>
       </c>
@@ -3980,13 +3988,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L6" s="1">
         <f>SUM(G7:G19,F21-G21)/SUM(F7:F21)</f>
         <v>0.88442487616951015</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>2</v>
       </c>
@@ -4008,7 +4016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="L8">
@@ -4016,7 +4024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>0</v>
       </c>
@@ -4038,7 +4046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="L10">
@@ -4046,7 +4054,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>5</v>
       </c>
@@ -4068,7 +4076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="L12">
@@ -4076,7 +4084,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>1</v>
       </c>
@@ -4098,7 +4106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="L14">
@@ -4106,7 +4114,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>4</v>
       </c>
@@ -4128,7 +4136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="L16" s="1">
@@ -4136,7 +4144,7 @@
         <v>0.81393034825870647</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>3</v>
       </c>
@@ -4158,7 +4166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="L18" s="1">
@@ -4166,7 +4174,7 @@
         <v>0.97167487684729059</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>7</v>
       </c>
@@ -4185,11 +4193,11 @@
         <v>0.11504424778761062</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.2">
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
         <v>6</v>
       </c>

--- a/Data/CancerSEEK/Test Effectiveness.xlsx
+++ b/Data/CancerSEEK/Test Effectiveness.xlsx
@@ -748,7 +748,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>

--- a/Data/CancerSEEK/Test Effectiveness.xlsx
+++ b/Data/CancerSEEK/Test Effectiveness.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11202"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrewil000\OneDrive - Oak Ridge Schools\Documents\Thesis\Data\CancerSEEK\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_F3439875FEBFF39F17415A1E57F4126046611FDD" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Theirs" sheetId="1" r:id="rId1"/>
@@ -25,10 +26,16 @@
   <definedNames>
     <definedName name="R11000000C8">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="191028" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -133,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,9 +190,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 13" xfId="1"/>
-    <cellStyle name="Normal 10 4" xfId="2"/>
-    <cellStyle name="Normal 10 4 3" xfId="3"/>
+    <cellStyle name="Normal 10 13" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 10 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 10 4 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,23 +469,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.2578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
         <v>8</v>
       </c>
@@ -498,7 +505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H2" s="1">
         <f>MEDIAN(E7:E19)</f>
         <v>0.70796460176991149</v>
@@ -524,7 +531,7 @@
         <v>0.62288557213930351</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>13</v>
       </c>
@@ -535,7 +542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K4">
         <f>SUM(C7:C19)</f>
         <v>626</v>
@@ -549,7 +556,7 @@
         <v>0.99137931034482762</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>17</v>
       </c>
@@ -557,7 +564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -576,12 +583,12 @@
         <v>0.66507177033492826</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -600,11 +607,11 @@
         <v>0.35051546391752575</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -623,11 +630,11 @@
         <v>2.2727272727272728E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -646,11 +653,11 @@
         <v>0.41346153846153844</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -669,11 +676,11 @@
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -692,11 +699,11 @@
         <v>0.27956989247311825</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -715,11 +722,11 @@
         <v>0.29203539823008851</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -744,17 +751,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -765,7 +772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -780,7 +787,7 @@
         <v>0.82692307692307687</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -794,13 +801,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L4" s="1">
         <f>SUM(G7:G19)/SUM(F7:F19)</f>
         <v>0.74328358208955225</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -817,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -829,7 +836,7 @@
         <v>0.85360484314804619</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>2</v>
       </c>
@@ -851,7 +858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="L8">
@@ -859,7 +866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>0</v>
       </c>
@@ -881,7 +888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="L10">
@@ -889,7 +896,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>5</v>
       </c>
@@ -911,7 +918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="L12">
@@ -919,7 +926,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>1</v>
       </c>
@@ -941,7 +948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="L14">
@@ -949,7 +956,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>4</v>
       </c>
@@ -971,7 +978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="L16" s="1">
@@ -979,7 +986,7 @@
         <v>0.74328358208955225</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>3</v>
       </c>
@@ -1001,7 +1008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="L18" s="1">
@@ -1009,7 +1016,7 @@
         <v>0.99014778325123154</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>7</v>
       </c>
@@ -1028,11 +1035,11 @@
         <v>0.15044247787610621</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.2">
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
         <v>6</v>
       </c>
@@ -1057,16 +1064,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>30</v>
       </c>
@@ -1083,7 +1090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -1094,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1122,7 +1129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="N4" s="1">
@@ -1131,7 +1138,7 @@
       </c>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="N6" s="1">
@@ -1161,7 +1168,7 @@
         <v>0.85635663181067689</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
         <v>5</v>
       </c>
@@ -1186,7 +1193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="N8">
@@ -1198,7 +1205,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
         <v>1</v>
       </c>
@@ -1223,7 +1230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="N10">
@@ -1235,7 +1242,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
         <v>4</v>
       </c>
@@ -1257,7 +1264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="N12" s="1">
@@ -1265,7 +1272,7 @@
         <v>0.75920398009950252</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G13" t="s">
         <v>3</v>
       </c>
@@ -1287,7 +1294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="N14" s="1">
@@ -1295,7 +1302,7 @@
         <v>0.97660098522167482</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G15" t="s">
         <v>7</v>
       </c>
@@ -1314,11 +1321,11 @@
         <v>0.17699115044247787</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
         <v>6</v>
       </c>
@@ -1343,23 +1350,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
       <selection activeCell="E7" sqref="E7:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.2578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H2" s="1">
         <f>MEDIAN(E7:E19)</f>
         <v>0.875</v>
@@ -1405,7 +1412,7 @@
         <v>0.90476190476190477</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>13</v>
       </c>
@@ -1416,7 +1423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K4">
         <f>SUM(C7:C19)</f>
         <v>95</v>
@@ -1430,7 +1437,7 @@
         <v>0.90666666666666662</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>17</v>
       </c>
@@ -1438,7 +1445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1457,11 +1464,11 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1480,11 +1487,11 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1503,11 +1510,11 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1526,11 +1533,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1549,11 +1556,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1572,11 +1579,11 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1595,11 +1602,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1625,23 +1632,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
       <selection activeCell="E7" sqref="E7:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.2578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -1666,7 +1673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1695,7 +1702,7 @@
         <v>0.85870646766169156</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1709,7 +1716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K4">
         <f>SUM(C7:C19)</f>
         <v>863</v>
@@ -1723,7 +1730,7 @@
         <v>0.99384236453201968</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>17</v>
       </c>
@@ -1731,7 +1738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1750,11 +1757,11 @@
         <v>0.28708133971291866</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1773,11 +1780,11 @@
         <v>0.13144329896907217</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1796,11 +1803,11 @@
         <v>2.2727272727272728E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1819,11 +1826,11 @@
         <v>6.7307692307692304E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1842,11 +1849,11 @@
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1865,11 +1872,11 @@
         <v>0.13978494623655913</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1888,11 +1895,11 @@
         <v>7.9646017699115043E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1921,23 +1928,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}">
       <selection activeCell="E7" sqref="E7:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.2578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
         <v>8</v>
       </c>
@@ -1957,7 +1964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H2" s="1">
         <f>MEDIAN(E7:E19)</f>
         <v>0.92920353982300885</v>
@@ -1983,7 +1990,7 @@
         <v>0.88059701492537312</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>13</v>
       </c>
@@ -1994,7 +2001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K4">
         <f>SUM(C7:C19)</f>
         <v>885</v>
@@ -2008,7 +2015,7 @@
         <v>0.91871921182266014</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>17</v>
       </c>
@@ -2016,7 +2023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2036,11 +2043,11 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2059,11 +2066,11 @@
         <v>0.12886597938144329</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2082,11 +2089,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2105,11 +2112,11 @@
         <v>5.7692307692307696E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2128,11 +2135,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2151,11 +2158,11 @@
         <v>0.13978494623655913</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2174,11 +2181,11 @@
         <v>7.0796460176991149E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2203,28 +2210,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BQ22"/>
   <sheetViews>
-    <sheetView topLeftCell="BA1" workbookViewId="0">
+    <sheetView topLeftCell="BA1" workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}">
       <selection activeCell="BI22" sqref="BI22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.44921875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.2578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
         <v>8</v>
       </c>
@@ -2244,7 +2251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
       <c r="H2" s="1">
         <f>MEDIAN(E7:E19)</f>
         <v>0.86725663716814161</v>
@@ -2274,7 +2281,7 @@
         <v>0.8584070796460177</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
         <v>10</v>
       </c>
@@ -2294,7 +2301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="H4" s="1">
         <f>SUM(C7:C19)/SUM(B7:B19)</f>
         <v>0.78606965174129351</v>
@@ -2324,7 +2331,7 @@
         <v>0.78308457711442792</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>17</v>
       </c>
@@ -2380,7 +2387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="H6" s="1">
         <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
         <v>0.87506879471656573</v>
@@ -2410,7 +2417,7 @@
         <v>0.86681342872867362</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2533,7 +2540,7 @@
       </c>
       <c r="BQ7" s="1"/>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="H8">
@@ -2571,7 +2578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2693,7 +2700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="H10">
@@ -2731,7 +2738,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2853,7 +2860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="H12">
@@ -2891,7 +2898,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -3013,7 +3020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="H14">
@@ -3051,7 +3058,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3173,7 +3180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="H16" s="1">
@@ -3221,7 +3228,7 @@
         <v>0.78308457711442792</v>
       </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -3343,7 +3350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="H18" s="1">
@@ -3385,7 +3392,7 @@
         <v>0.97044334975369462</v>
       </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3489,7 +3496,7 @@
         <v>0.1415929203539823</v>
       </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="P20" s="1"/>
@@ -3503,7 +3510,7 @@
       <c r="BH20" s="1"/>
       <c r="BI20" s="1"/>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -3607,7 +3614,7 @@
         <v>2.9556650246305417E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
       <c r="BH22" s="1"/>
       <c r="BI22" s="1"/>
     </row>
@@ -3617,17 +3624,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{85D5C41F-068E-5C55-9968-509E7C2A5619}">
       <selection sqref="A1:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>30</v>
       </c>
@@ -3641,7 +3648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -3656,18 +3663,18 @@
         <v>0.95575221238938057</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L4" s="1">
         <f>SUM(G7:G19)/SUM(F7:F19)</f>
         <v>0.91243781094527365</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>17</v>
       </c>
@@ -3678,13 +3685,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L6" s="1">
         <f>SUM(G7:G19,F21-G21)/SUM(F7:F21)</f>
         <v>0.91029168959823881</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>2</v>
       </c>
@@ -3706,7 +3713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="L8">
@@ -3714,7 +3721,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>0</v>
       </c>
@@ -3736,7 +3743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="L10">
@@ -3744,7 +3751,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>5</v>
       </c>
@@ -3766,7 +3773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="L12">
@@ -3774,7 +3781,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>1</v>
       </c>
@@ -3796,7 +3803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="L14">
@@ -3804,7 +3811,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>4</v>
       </c>
@@ -3826,7 +3833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="L16" s="1">
@@ -3834,7 +3841,7 @@
         <v>0.91243781094527365</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>3</v>
       </c>
@@ -3856,7 +3863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="L18" s="1">
@@ -3864,7 +3871,7 @@
         <v>0.9076354679802956</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>7</v>
       </c>
@@ -3883,11 +3890,11 @@
         <v>4.4247787610619468E-2</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.2">
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
         <v>6</v>
       </c>
@@ -3913,17 +3920,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{44B22561-5205-5C8A-B808-2C70100D228F}">
       <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>30</v>
       </c>
@@ -3937,7 +3944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -3952,7 +3959,7 @@
         <v>0.88495575221238942</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3963,13 +3970,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L4" s="1">
         <f>SUM(G7:G19)/SUM(F7:F19)</f>
         <v>0.81393034825870647</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>17</v>
       </c>
@@ -3980,13 +3987,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L6" s="1">
         <f>SUM(G7:G19,F21-G21)/SUM(F7:F21)</f>
         <v>0.88442487616951015</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>2</v>
       </c>
@@ -4008,7 +4015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="L8">
@@ -4016,7 +4023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>0</v>
       </c>
@@ -4038,7 +4045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="L10">
@@ -4046,7 +4053,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>5</v>
       </c>
@@ -4068,7 +4075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="L12">
@@ -4076,7 +4083,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>1</v>
       </c>
@@ -4098,7 +4105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="L14">
@@ -4106,7 +4113,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>4</v>
       </c>
@@ -4128,7 +4135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="L16" s="1">
@@ -4136,7 +4143,7 @@
         <v>0.81393034825870647</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>3</v>
       </c>
@@ -4158,7 +4165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="L18" s="1">
@@ -4166,7 +4173,7 @@
         <v>0.97167487684729059</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>7</v>
       </c>
@@ -4185,11 +4192,11 @@
         <v>0.11504424778761062</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.2">
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
         <v>6</v>
       </c>

--- a/Data/CancerSEEK/Test Effectiveness.xlsx
+++ b/Data/CancerSEEK/Test Effectiveness.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11202"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11209"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrewil000\OneDrive - Oak Ridge Schools\Documents\Thesis\Data\CancerSEEK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven7214/Desktop/Thesis/Data/CancerSEEK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_F3439875FEBFF39F17415A1E57F4126046611FDD" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2921C9E8-0831-104F-B015-3C83A142FC4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="15960" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Theirs" sheetId="1" r:id="rId1"/>
@@ -26,23 +26,17 @@
   <definedNames>
     <definedName name="R11000000C8">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028" refMode="R1C1"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="31">
   <si>
     <t>Colorectum</t>
   </si>
@@ -473,16 +467,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.2578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -755,11 +749,11 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -1067,11 +1061,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1">
@@ -1354,16 +1348,16 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.2578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -1636,16 +1630,16 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.2578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -1932,16 +1926,16 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.2578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -2214,21 +2208,21 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BQ22"/>
   <sheetViews>
-    <sheetView topLeftCell="BA1" workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}">
+    <sheetView topLeftCell="BA1" workbookViewId="0">
       <selection activeCell="BI22" sqref="BI22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="14.9296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.9296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.9296875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.9296875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.9296875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.44921875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.2578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
@@ -3628,11 +3622,11 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{85D5C41F-068E-5C55-9968-509E7C2A5619}">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1">
@@ -3922,78 +3916,67 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{44B22561-5205-5C8A-B808-2C70100D228F}">
-      <selection activeCell="C3" sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
         <v>30</v>
-      </c>
-      <c r="B1">
-        <v>120</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>120</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <f>MEDIAN(I7:I19)</f>
-        <v>0.88495575221238942</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L4" s="1">
-        <f>SUM(G7:G19)/SUM(F7:F19)</f>
-        <v>0.81393034825870647</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>0.96</v>
+      </c>
       <c r="I5" t="s">
         <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
       </c>
-      <c r="L5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L6" s="1">
-        <f>SUM(G7:G19,F21-G21)/SUM(F7:F21)</f>
-        <v>0.88442487616951015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>2</v>
       </c>
@@ -4001,29 +3984,30 @@
         <v>209</v>
       </c>
       <c r="G7">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="I7" s="1">
         <f>G7/F7</f>
-        <v>0.61722488038277512</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="J7" s="1">
         <f>(F7-G7)/F7</f>
-        <v>0.38277511961722488</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="L7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="L8">
-        <f>G21</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="1">
+        <f>MEDIAN(I7:I19)</f>
+        <v>0.82300884955752207</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>0</v>
       </c>
@@ -4031,29 +4015,29 @@
         <v>388</v>
       </c>
       <c r="G9">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="I9" s="1">
         <f>G9/F9</f>
-        <v>0.83247422680412375</v>
+        <v>0.76288659793814428</v>
       </c>
       <c r="J9" s="1">
         <f>(F9-G9)/F9</f>
-        <v>0.16752577319587628</v>
+        <v>0.23711340206185566</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="L10">
-        <f t="shared" ref="L10" si="0">SUM(G7:G19)</f>
-        <v>818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="1">
+        <f>SUM(G7:G19,F21,-G21)/SUM(F7:F21)</f>
+        <v>0.85635663181067689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>5</v>
       </c>
@@ -4072,18 +4056,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="L12">
+        <f>G21</f>
+        <v>8</v>
+      </c>
+      <c r="M12">
         <f>SUM(F7:F19)-SUM(G7:G19)</f>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>1</v>
       </c>
@@ -4091,29 +4082,36 @@
         <v>104</v>
       </c>
       <c r="G13">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I13" s="1">
         <f>G13/F13</f>
-        <v>0.92307692307692313</v>
+        <v>0.83653846153846156</v>
       </c>
       <c r="J13" s="1">
         <f>(F13-G13)/F13</f>
-        <v>7.6923076923076927E-2</v>
+        <v>0.16346153846153846</v>
       </c>
       <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="L14">
+        <f>SUM(G7:G19)</f>
+        <v>752</v>
+      </c>
+      <c r="M14">
         <f>F21-G21</f>
-        <v>789</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>4</v>
       </c>
@@ -4135,12 +4133,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="L16" s="1">
-        <f t="shared" ref="L16" si="1">L10/(L10+L12)</f>
-        <v>0.81393034825870647</v>
+        <f>SUM(G7:G19)/SUM(F7:F19)</f>
+        <v>0.74825870646766168</v>
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.2">
@@ -4151,15 +4149,15 @@
         <v>93</v>
       </c>
       <c r="G17">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I17" s="1">
         <f>G17/F17</f>
-        <v>0.78494623655913975</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="J17" s="1">
         <f>(F17-G17)/F17</f>
-        <v>0.21505376344086022</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -4169,8 +4167,8 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="L18" s="1">
-        <f>L14/(L14+L8)</f>
-        <v>0.97167487684729059</v>
+        <f>(F21-G21)/F21</f>
+        <v>0.99014778325123154</v>
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.2">
@@ -4181,15 +4179,15 @@
         <v>113</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I19" s="1">
         <f>G19/F19</f>
-        <v>0.88495575221238942</v>
+        <v>0.82300884955752207</v>
       </c>
       <c r="J19" s="1">
         <f>(F19-G19)/F19</f>
-        <v>0.11504424778761062</v>
+        <v>0.17699115044247787</v>
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.2">
@@ -4204,15 +4202,15 @@
         <v>812</v>
       </c>
       <c r="G21">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I21" s="1">
         <f>(F21-G21)/F21</f>
-        <v>0.97167487684729059</v>
+        <v>0.99014778325123154</v>
       </c>
       <c r="J21" s="1">
         <f>G21/F21</f>
-        <v>2.832512315270936E-2</v>
+        <v>9.852216748768473E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Data/CancerSEEK/Test Effectiveness.xlsx
+++ b/Data/CancerSEEK/Test Effectiveness.xlsx
@@ -1,42 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven7214/Desktop/Thesis/Data/CancerSEEK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven7214/Desktop/OneDrive/Thesis/Data/CancerSEEK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2921C9E8-0831-104F-B015-3C83A142FC4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{2921C9E8-0831-104F-B015-3C83A142FC4C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{4E13C4ED-0ED0-A747-A414-84D1301B6A9F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="15960" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="15960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Theirs" sheetId="1" r:id="rId1"/>
     <sheet name=".98" sheetId="9" r:id="rId2"/>
-    <sheet name="Individual" sheetId="10" r:id="rId3"/>
-    <sheet name="Ours" sheetId="2" r:id="rId4"/>
-    <sheet name="Less+" sheetId="3" r:id="rId5"/>
-    <sheet name="10x" sheetId="5" r:id="rId6"/>
-    <sheet name="Omega" sheetId="6" r:id="rId7"/>
-    <sheet name="Benchmark" sheetId="7" r:id="rId8"/>
-    <sheet name="New" sheetId="8" r:id="rId9"/>
+    <sheet name="New" sheetId="8" r:id="rId3"/>
+    <sheet name="Individual" sheetId="10" r:id="rId4"/>
+    <sheet name="Ours" sheetId="2" r:id="rId5"/>
+    <sheet name="Omega" sheetId="6" r:id="rId6"/>
+    <sheet name="Benchmark" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="R11000000C8">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="30">
   <si>
     <t>Colorectum</t>
   </si>
@@ -93,9 +97,6 @@
   </si>
   <si>
     <t>Incorrect</t>
-  </si>
-  <si>
-    <t>Fair warning this was trained and tested on mainly the same data</t>
   </si>
   <si>
     <t>Weight</t>
@@ -174,13 +175,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,10 +755,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
@@ -768,7 +766,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -783,7 +781,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>25</v>
@@ -803,7 +801,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0.98</v>
@@ -820,7 +818,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>120</v>
@@ -1058,6 +1056,312 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0.96</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>209</v>
+      </c>
+      <c r="G7">
+        <v>110</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7/F7</f>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="J7" s="1">
+        <f>(F7-G7)/F7</f>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="L8" s="1">
+        <f>MEDIAN(I7:I19)</f>
+        <v>0.82300884955752207</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>388</v>
+      </c>
+      <c r="G9">
+        <v>296</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9/F9</f>
+        <v>0.76288659793814428</v>
+      </c>
+      <c r="J9" s="1">
+        <f>(F9-G9)/F9</f>
+        <v>0.23711340206185566</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="L10" s="1">
+        <f>SUM(G7:G19,F21,-G21)/SUM(F7:F21)</f>
+        <v>0.85635663181067689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>44</v>
+      </c>
+      <c r="G11">
+        <v>44</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11/F11</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <f>(F11-G11)/F11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="L12">
+        <f>G21</f>
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <f>SUM(F7:F19)-SUM(G7:G19)</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>104</v>
+      </c>
+      <c r="G13">
+        <v>87</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13/F13</f>
+        <v>0.83653846153846156</v>
+      </c>
+      <c r="J13" s="1">
+        <f>(F13-G13)/F13</f>
+        <v>0.16346153846153846</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="L14">
+        <f>SUM(G7:G19)</f>
+        <v>752</v>
+      </c>
+      <c r="M14">
+        <f>F21-G21</f>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>54</v>
+      </c>
+      <c r="G15">
+        <v>53</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15/F15</f>
+        <v>0.98148148148148151</v>
+      </c>
+      <c r="J15" s="1">
+        <f>(F15-G15)/F15</f>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="L16" s="1">
+        <f>SUM(G7:G19)/SUM(F7:F19)</f>
+        <v>0.74825870646766168</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>93</v>
+      </c>
+      <c r="G17">
+        <v>69</v>
+      </c>
+      <c r="I17" s="1">
+        <f>G17/F17</f>
+        <v>0.74193548387096775</v>
+      </c>
+      <c r="J17" s="1">
+        <f>(F17-G17)/F17</f>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="L18" s="1">
+        <f>(F21-G21)/F21</f>
+        <v>0.99014778325123154</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>113</v>
+      </c>
+      <c r="G19">
+        <v>93</v>
+      </c>
+      <c r="I19" s="1">
+        <f>G19/F19</f>
+        <v>0.82300884955752207</v>
+      </c>
+      <c r="J19" s="1">
+        <f>(F19-G19)/F19</f>
+        <v>0.17699115044247787</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>812</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="I21" s="1">
+        <f>(F21-G21)/F21</f>
+        <v>0.99014778325123154</v>
+      </c>
+      <c r="J21" s="1">
+        <f>G21/F21</f>
+        <v>9.852216748768473E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O17"/>
   <sheetViews>
@@ -1097,10 +1401,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
@@ -1120,7 +1424,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1151,7 +1455,7 @@
         <v>0.21391752577319587</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1181,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O7" t="s">
         <v>12</v>
@@ -1343,13 +1647,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F21"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1625,585 +1929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:N21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="H2" s="1">
-        <f>MEDIAN(E7:E19)</f>
-        <v>0.92035398230088494</v>
-      </c>
-      <c r="I2" s="1">
-        <f>SUM(C7:C19)/SUM(B7:B19)</f>
-        <v>0.85870646766169156</v>
-      </c>
-      <c r="J2" s="1">
-        <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
-        <v>0.91909741331865713</v>
-      </c>
-      <c r="K2">
-        <f>C21</f>
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <f>SUM(B7:B19)-SUM(C7:C19)</f>
-        <v>142</v>
-      </c>
-      <c r="N2" s="1">
-        <f>K4/(K4+L2)</f>
-        <v>0.85870646766169156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K4">
-        <f>SUM(C7:C19)</f>
-        <v>863</v>
-      </c>
-      <c r="L4">
-        <f>B21-C21</f>
-        <v>807</v>
-      </c>
-      <c r="N4" s="1">
-        <f>L4/(L4+K2)</f>
-        <v>0.99384236453201968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>209</v>
-      </c>
-      <c r="C7">
-        <v>149</v>
-      </c>
-      <c r="E7" s="1">
-        <f>C7/B7</f>
-        <v>0.71291866028708128</v>
-      </c>
-      <c r="F7" s="1">
-        <f>(B7-C7)/B7</f>
-        <v>0.28708133971291866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>388</v>
-      </c>
-      <c r="C9">
-        <v>337</v>
-      </c>
-      <c r="E9" s="1">
-        <f>C9/B9</f>
-        <v>0.86855670103092786</v>
-      </c>
-      <c r="F9" s="1">
-        <f>(B9-C9)/B9</f>
-        <v>0.13144329896907217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>44</v>
-      </c>
-      <c r="C11">
-        <v>43</v>
-      </c>
-      <c r="E11" s="1">
-        <f>C11/B11</f>
-        <v>0.97727272727272729</v>
-      </c>
-      <c r="F11" s="1">
-        <f>(B11-C11)/B11</f>
-        <v>2.2727272727272728E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>104</v>
-      </c>
-      <c r="C13">
-        <v>97</v>
-      </c>
-      <c r="E13" s="1">
-        <f>C13/B13</f>
-        <v>0.93269230769230771</v>
-      </c>
-      <c r="F13" s="1">
-        <f>(B13-C13)/B13</f>
-        <v>6.7307692307692304E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>54</v>
-      </c>
-      <c r="C15">
-        <v>53</v>
-      </c>
-      <c r="E15" s="1">
-        <f>C15/B15</f>
-        <v>0.98148148148148151</v>
-      </c>
-      <c r="F15" s="1">
-        <f>(B15-C15)/B15</f>
-        <v>1.8518518518518517E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>93</v>
-      </c>
-      <c r="C17">
-        <v>80</v>
-      </c>
-      <c r="E17" s="1">
-        <f>C17/B17</f>
-        <v>0.86021505376344087</v>
-      </c>
-      <c r="F17" s="1">
-        <f>(B17-C17)/B17</f>
-        <v>0.13978494623655913</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>113</v>
-      </c>
-      <c r="C19">
-        <v>104</v>
-      </c>
-      <c r="E19" s="1">
-        <f>C19/B19</f>
-        <v>0.92035398230088494</v>
-      </c>
-      <c r="F19" s="1">
-        <f>(B19-C19)/B19</f>
-        <v>7.9646017699115043E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>812</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1">
-        <f>(B21-C21)/B21</f>
-        <v>0.99384236453201968</v>
-      </c>
-      <c r="F21" s="1">
-        <f>C21/B21</f>
-        <v>6.1576354679802959E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:N21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H2" s="1">
-        <f>MEDIAN(E7:E19)</f>
-        <v>0.92920353982300885</v>
-      </c>
-      <c r="I2" s="1">
-        <f>SUM(C7:C19)/SUM(B7:B19)</f>
-        <v>0.88059701492537312</v>
-      </c>
-      <c r="J2" s="1">
-        <f>SUM(C7:C19,B21-C21)/SUM(B7:B21)</f>
-        <v>0.89763346175013758</v>
-      </c>
-      <c r="K2">
-        <f>C21</f>
-        <v>66</v>
-      </c>
-      <c r="L2">
-        <f>SUM(B7:B19)-SUM(C7:C19)</f>
-        <v>120</v>
-      </c>
-      <c r="N2" s="1">
-        <f>K4/(K4+L2)</f>
-        <v>0.88059701492537312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K4">
-        <f>SUM(C7:C19)</f>
-        <v>885</v>
-      </c>
-      <c r="L4">
-        <f>B21-C21</f>
-        <v>746</v>
-      </c>
-      <c r="N4" s="1">
-        <f>L4/(L4+K2)</f>
-        <v>0.91871921182266014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>209</v>
-      </c>
-      <c r="C7">
-        <v>166</v>
-      </c>
-      <c r="E7" s="1">
-        <f>C7/B7</f>
-        <v>0.79425837320574166</v>
-      </c>
-      <c r="F7" s="1">
-        <f>(B7-C7)/B7</f>
-        <v>0.20574162679425836</v>
-      </c>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>388</v>
-      </c>
-      <c r="C9">
-        <v>338</v>
-      </c>
-      <c r="E9" s="1">
-        <f>C9/B9</f>
-        <v>0.87113402061855671</v>
-      </c>
-      <c r="F9" s="1">
-        <f>(B9-C9)/B9</f>
-        <v>0.12886597938144329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>44</v>
-      </c>
-      <c r="C11">
-        <v>44</v>
-      </c>
-      <c r="E11" s="1">
-        <f>C11/B11</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <f>(B11-C11)/B11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>104</v>
-      </c>
-      <c r="C13">
-        <v>98</v>
-      </c>
-      <c r="E13" s="1">
-        <f>C13/B13</f>
-        <v>0.94230769230769229</v>
-      </c>
-      <c r="F13" s="1">
-        <f>(B13-C13)/B13</f>
-        <v>5.7692307692307696E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>54</v>
-      </c>
-      <c r="C15">
-        <v>54</v>
-      </c>
-      <c r="E15" s="1">
-        <f>C15/B15</f>
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <f>(B15-C15)/B15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>93</v>
-      </c>
-      <c r="C17">
-        <v>80</v>
-      </c>
-      <c r="E17" s="1">
-        <f>C17/B17</f>
-        <v>0.86021505376344087</v>
-      </c>
-      <c r="F17" s="1">
-        <f>(B17-C17)/B17</f>
-        <v>0.13978494623655913</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>113</v>
-      </c>
-      <c r="C19">
-        <v>105</v>
-      </c>
-      <c r="E19" s="1">
-        <f>C19/B19</f>
-        <v>0.92920353982300885</v>
-      </c>
-      <c r="F19" s="1">
-        <f>(B19-C19)/B19</f>
-        <v>7.0796460176991149E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>812</v>
-      </c>
-      <c r="C21">
-        <v>66</v>
-      </c>
-      <c r="E21" s="1">
-        <f>(B21-C21)/B21</f>
-        <v>0.91871921182266014</v>
-      </c>
-      <c r="F21" s="1">
-        <f>C21/B21</f>
-        <v>8.1280788177339899E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BQ22"/>
@@ -3617,7 +3343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L21"/>
@@ -3911,310 +3637,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:M21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>0.96</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>209</v>
-      </c>
-      <c r="G7">
-        <v>110</v>
-      </c>
-      <c r="I7" s="1">
-        <f>G7/F7</f>
-        <v>0.52631578947368418</v>
-      </c>
-      <c r="J7" s="1">
-        <f>(F7-G7)/F7</f>
-        <v>0.47368421052631576</v>
-      </c>
-      <c r="L7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="L8" s="1">
-        <f>MEDIAN(I7:I19)</f>
-        <v>0.82300884955752207</v>
-      </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>388</v>
-      </c>
-      <c r="G9">
-        <v>296</v>
-      </c>
-      <c r="I9" s="1">
-        <f>G9/F9</f>
-        <v>0.76288659793814428</v>
-      </c>
-      <c r="J9" s="1">
-        <f>(F9-G9)/F9</f>
-        <v>0.23711340206185566</v>
-      </c>
-      <c r="L9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="L10" s="1">
-        <f>SUM(G7:G19,F21,-G21)/SUM(F7:F21)</f>
-        <v>0.85635663181067689</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>44</v>
-      </c>
-      <c r="G11">
-        <v>44</v>
-      </c>
-      <c r="I11" s="1">
-        <f>G11/F11</f>
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <f>(F11-G11)/F11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="L12">
-        <f>G21</f>
-        <v>8</v>
-      </c>
-      <c r="M12">
-        <f>SUM(F7:F19)-SUM(G7:G19)</f>
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>104</v>
-      </c>
-      <c r="G13">
-        <v>87</v>
-      </c>
-      <c r="I13" s="1">
-        <f>G13/F13</f>
-        <v>0.83653846153846156</v>
-      </c>
-      <c r="J13" s="1">
-        <f>(F13-G13)/F13</f>
-        <v>0.16346153846153846</v>
-      </c>
-      <c r="L13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="L14">
-        <f>SUM(G7:G19)</f>
-        <v>752</v>
-      </c>
-      <c r="M14">
-        <f>F21-G21</f>
-        <v>804</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>54</v>
-      </c>
-      <c r="G15">
-        <v>53</v>
-      </c>
-      <c r="I15" s="1">
-        <f>G15/F15</f>
-        <v>0.98148148148148151</v>
-      </c>
-      <c r="J15" s="1">
-        <f>(F15-G15)/F15</f>
-        <v>1.8518518518518517E-2</v>
-      </c>
-      <c r="L15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="L16" s="1">
-        <f>SUM(G7:G19)/SUM(F7:F19)</f>
-        <v>0.74825870646766168</v>
-      </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>93</v>
-      </c>
-      <c r="G17">
-        <v>69</v>
-      </c>
-      <c r="I17" s="1">
-        <f>G17/F17</f>
-        <v>0.74193548387096775</v>
-      </c>
-      <c r="J17" s="1">
-        <f>(F17-G17)/F17</f>
-        <v>0.25806451612903225</v>
-      </c>
-      <c r="L17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="L18" s="1">
-        <f>(F21-G21)/F21</f>
-        <v>0.99014778325123154</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19">
-        <v>113</v>
-      </c>
-      <c r="G19">
-        <v>93</v>
-      </c>
-      <c r="I19" s="1">
-        <f>G19/F19</f>
-        <v>0.82300884955752207</v>
-      </c>
-      <c r="J19" s="1">
-        <f>(F19-G19)/F19</f>
-        <v>0.17699115044247787</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21">
-        <v>812</v>
-      </c>
-      <c r="G21">
-        <v>8</v>
-      </c>
-      <c r="I21" s="1">
-        <f>(F21-G21)/F21</f>
-        <v>0.99014778325123154</v>
-      </c>
-      <c r="J21" s="1">
-        <f>G21/F21</f>
-        <v>9.852216748768473E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>